--- a/apps/load_data/2018/03/PLMOVMAE.xlsx
+++ b/apps/load_data/2018/03/PLMOVMAE.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NOMBRADOS -2018\HHY0318\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ACTUALIZADOS\2018\HHY0318\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C9DDBAE5-E587-4E46-B88C-9585F65A7E55}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E6DBFCB-D527-46F8-998E-C1A8072DA4EB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="10305"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="10305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PLMOVMAE" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PLMOVMAE!$A$1:$CF$265</definedName>
     <definedName name="_xlnm.Database">PLMOVMAE!$A$1:$CF$265</definedName>
   </definedNames>
   <calcPr calcId="0"/>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10554" uniqueCount="2853">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10541" uniqueCount="2851">
   <si>
     <t>CODEJE</t>
   </si>
@@ -7018,9 +7019,6 @@
     <t>0064A         1</t>
   </si>
   <si>
-    <t>S/N</t>
-  </si>
-  <si>
     <t>1081    326625    3266251082    175875    1758752001         0     424612006     27300     273002026    259643    2596432027      3068      30682029      1500      15002086      2500      25002180       250       2502182       100       100</t>
   </si>
   <si>
@@ -8483,9 +8481,6 @@
   </si>
   <si>
     <t>06567208</t>
-  </si>
-  <si>
-    <t>S/M</t>
   </si>
   <si>
     <t>6501080BIHTE003</t>
@@ -8587,7 +8582,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -9427,10 +9422,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CF265"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AD261" sqref="AC209:AD261"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -45806,12 +45803,7 @@
       <c r="AA209" s="1">
         <v>0</v>
       </c>
-      <c r="AC209" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD209" s="1" t="s">
-        <v>2331</v>
-      </c>
+      <c r="AC209" s="3"/>
       <c r="AF209" s="1" t="s">
         <v>103</v>
       </c>
@@ -45876,10 +45868,10 @@
         <v>111</v>
       </c>
       <c r="BH209" s="1" t="s">
+        <v>2331</v>
+      </c>
+      <c r="BI209" s="1" t="s">
         <v>2332</v>
-      </c>
-      <c r="BI209" s="1" t="s">
-        <v>2333</v>
       </c>
       <c r="BM209" s="1" t="s">
         <v>114</v>
@@ -45891,7 +45883,7 @@
         <v>155</v>
       </c>
       <c r="BT209" s="1" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
       <c r="BU209" s="1" t="s">
         <v>118</v>
@@ -45912,13 +45904,13 @@
         <v>107</v>
       </c>
       <c r="CC209" s="1" t="s">
+        <v>2334</v>
+      </c>
+      <c r="CD209" s="1" t="s">
         <v>2335</v>
       </c>
-      <c r="CD209" s="1" t="s">
+      <c r="CE209" s="1" t="s">
         <v>2336</v>
-      </c>
-      <c r="CE209" s="1" t="s">
-        <v>2337</v>
       </c>
     </row>
     <row r="210" spans="1:83" x14ac:dyDescent="0.25">
@@ -45953,19 +45945,19 @@
         <v>93</v>
       </c>
       <c r="K210" s="1" t="s">
+        <v>2337</v>
+      </c>
+      <c r="L210" s="1" t="s">
         <v>2338</v>
       </c>
-      <c r="L210" s="1" t="s">
+      <c r="N210" s="1" t="s">
         <v>2339</v>
       </c>
-      <c r="N210" s="1" t="s">
+      <c r="O210" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P210" s="1" t="s">
         <v>2340</v>
-      </c>
-      <c r="O210" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="P210" s="1" t="s">
-        <v>2341</v>
       </c>
       <c r="Q210" s="3">
         <v>27241</v>
@@ -45991,12 +45983,7 @@
       <c r="AB210" s="1" t="s">
         <v>1215</v>
       </c>
-      <c r="AC210" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD210" s="1" t="s">
-        <v>2331</v>
-      </c>
+      <c r="AC210" s="3"/>
       <c r="AF210" s="1" t="s">
         <v>103</v>
       </c>
@@ -46043,7 +46030,7 @@
         <v>107</v>
       </c>
       <c r="AZ210" s="1" t="s">
-        <v>2342</v>
+        <v>2341</v>
       </c>
       <c r="BB210" s="1">
         <v>3</v>
@@ -46061,10 +46048,10 @@
         <v>111</v>
       </c>
       <c r="BH210" s="1" t="s">
+        <v>2342</v>
+      </c>
+      <c r="BI210" s="1" t="s">
         <v>2343</v>
-      </c>
-      <c r="BI210" s="1" t="s">
-        <v>2344</v>
       </c>
       <c r="BM210" s="1" t="s">
         <v>114</v>
@@ -46076,13 +46063,13 @@
         <v>99</v>
       </c>
       <c r="BR210" s="1" t="s">
-        <v>2345</v>
+        <v>2344</v>
       </c>
       <c r="BS210" s="3">
         <v>36949</v>
       </c>
       <c r="BT210" s="1" t="s">
-        <v>2346</v>
+        <v>2345</v>
       </c>
       <c r="BU210" s="1" t="s">
         <v>118</v>
@@ -46106,13 +46093,13 @@
         <v>107</v>
       </c>
       <c r="CC210" s="1" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
       <c r="CD210" s="1" t="s">
         <v>1933</v>
       </c>
       <c r="CE210" s="1" t="s">
-        <v>2348</v>
+        <v>2347</v>
       </c>
     </row>
     <row r="211" spans="1:83" x14ac:dyDescent="0.25">
@@ -46147,19 +46134,19 @@
         <v>93</v>
       </c>
       <c r="K211" s="1" t="s">
+        <v>2348</v>
+      </c>
+      <c r="L211" s="1" t="s">
         <v>2349</v>
       </c>
-      <c r="L211" s="1" t="s">
+      <c r="N211" s="1" t="s">
         <v>2350</v>
       </c>
-      <c r="N211" s="1" t="s">
+      <c r="O211" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P211" s="1" t="s">
         <v>2351</v>
-      </c>
-      <c r="O211" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="P211" s="1" t="s">
-        <v>2352</v>
       </c>
       <c r="Q211" s="3">
         <v>25223</v>
@@ -46185,12 +46172,7 @@
       <c r="AB211" s="1" t="s">
         <v>1215</v>
       </c>
-      <c r="AC211" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD211" s="1" t="s">
-        <v>2331</v>
-      </c>
+      <c r="AC211" s="3"/>
       <c r="AF211" s="1" t="s">
         <v>103</v>
       </c>
@@ -46237,7 +46219,7 @@
         <v>107</v>
       </c>
       <c r="AZ211" s="1" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
       <c r="BB211" s="1">
         <v>3</v>
@@ -46258,10 +46240,10 @@
         <v>111</v>
       </c>
       <c r="BH211" s="1" t="s">
+        <v>2353</v>
+      </c>
+      <c r="BI211" s="1" t="s">
         <v>2354</v>
-      </c>
-      <c r="BI211" s="1" t="s">
-        <v>2355</v>
       </c>
       <c r="BM211" s="1" t="s">
         <v>114</v>
@@ -46273,13 +46255,13 @@
         <v>99</v>
       </c>
       <c r="BR211" s="1" t="s">
-        <v>2356</v>
+        <v>2355</v>
       </c>
       <c r="BS211" s="3">
         <v>36825</v>
       </c>
       <c r="BT211" s="1" t="s">
-        <v>2357</v>
+        <v>2356</v>
       </c>
       <c r="BU211" s="1" t="s">
         <v>118</v>
@@ -46303,13 +46285,13 @@
         <v>107</v>
       </c>
       <c r="CC211" s="1" t="s">
+        <v>2357</v>
+      </c>
+      <c r="CD211" s="1" t="s">
         <v>2358</v>
       </c>
-      <c r="CD211" s="1" t="s">
+      <c r="CE211" s="1" t="s">
         <v>2359</v>
-      </c>
-      <c r="CE211" s="1" t="s">
-        <v>2360</v>
       </c>
     </row>
     <row r="212" spans="1:83" x14ac:dyDescent="0.25">
@@ -46344,19 +46326,19 @@
         <v>93</v>
       </c>
       <c r="K212" s="1" t="s">
+        <v>2360</v>
+      </c>
+      <c r="L212" s="1" t="s">
         <v>2361</v>
       </c>
-      <c r="L212" s="1" t="s">
+      <c r="N212" s="1" t="s">
         <v>2362</v>
       </c>
-      <c r="N212" s="1" t="s">
+      <c r="O212" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P212" s="1" t="s">
         <v>2363</v>
-      </c>
-      <c r="O212" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="P212" s="1" t="s">
-        <v>2364</v>
       </c>
       <c r="Q212" s="3">
         <v>27018</v>
@@ -46379,12 +46361,7 @@
       <c r="AA212" s="1">
         <v>0</v>
       </c>
-      <c r="AC212" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD212" s="1" t="s">
-        <v>2331</v>
-      </c>
+      <c r="AC212" s="3"/>
       <c r="AF212" s="1" t="s">
         <v>103</v>
       </c>
@@ -46434,7 +46411,7 @@
         <v>107</v>
       </c>
       <c r="AZ212" s="1" t="s">
-        <v>2365</v>
+        <v>2364</v>
       </c>
       <c r="BB212" s="1">
         <v>3</v>
@@ -46452,7 +46429,7 @@
         <v>111</v>
       </c>
       <c r="BH212" s="1" t="s">
-        <v>2366</v>
+        <v>2365</v>
       </c>
       <c r="BI212" s="1" t="s">
         <v>1132</v>
@@ -46464,7 +46441,7 @@
         <v>102</v>
       </c>
       <c r="BT212" s="1" t="s">
-        <v>2367</v>
+        <v>2366</v>
       </c>
       <c r="BU212" s="1" t="s">
         <v>118</v>
@@ -46482,13 +46459,13 @@
         <v>107</v>
       </c>
       <c r="CC212" s="1" t="s">
-        <v>2368</v>
+        <v>2367</v>
       </c>
       <c r="CD212" s="1" t="s">
         <v>1206</v>
       </c>
       <c r="CE212" s="1" t="s">
-        <v>2369</v>
+        <v>2368</v>
       </c>
     </row>
     <row r="213" spans="1:83" x14ac:dyDescent="0.25">
@@ -46523,19 +46500,19 @@
         <v>93</v>
       </c>
       <c r="K213" s="1" t="s">
+        <v>2369</v>
+      </c>
+      <c r="L213" s="1" t="s">
         <v>2370</v>
       </c>
-      <c r="L213" s="1" t="s">
+      <c r="N213" s="1" t="s">
         <v>2371</v>
       </c>
-      <c r="N213" s="1" t="s">
+      <c r="O213" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P213" s="1" t="s">
         <v>2372</v>
-      </c>
-      <c r="O213" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="P213" s="1" t="s">
-        <v>2373</v>
       </c>
       <c r="Q213" s="3">
         <v>29037</v>
@@ -46558,12 +46535,7 @@
       <c r="AA213" s="1">
         <v>0</v>
       </c>
-      <c r="AC213" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD213" s="1" t="s">
-        <v>2331</v>
-      </c>
+      <c r="AC213" s="3"/>
       <c r="AF213" s="1" t="s">
         <v>103</v>
       </c>
@@ -46613,7 +46585,7 @@
         <v>107</v>
       </c>
       <c r="AZ213" s="1" t="s">
-        <v>2374</v>
+        <v>2373</v>
       </c>
       <c r="BB213" s="1">
         <v>3</v>
@@ -46631,7 +46603,7 @@
         <v>111</v>
       </c>
       <c r="BH213" s="1" t="s">
-        <v>2375</v>
+        <v>2374</v>
       </c>
       <c r="BM213" s="1" t="s">
         <v>114</v>
@@ -46640,7 +46612,7 @@
         <v>102</v>
       </c>
       <c r="BT213" s="1" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
       <c r="BU213" s="1" t="s">
         <v>118</v>
@@ -46661,10 +46633,10 @@
         <v>692</v>
       </c>
       <c r="CD213" s="1" t="s">
+        <v>2376</v>
+      </c>
+      <c r="CE213" s="1" t="s">
         <v>2377</v>
-      </c>
-      <c r="CE213" s="1" t="s">
-        <v>2378</v>
       </c>
     </row>
     <row r="214" spans="1:83" x14ac:dyDescent="0.25">
@@ -46699,19 +46671,19 @@
         <v>93</v>
       </c>
       <c r="K214" s="1" t="s">
+        <v>2378</v>
+      </c>
+      <c r="L214" s="1" t="s">
         <v>2379</v>
       </c>
-      <c r="L214" s="1" t="s">
+      <c r="N214" s="1" t="s">
         <v>2380</v>
       </c>
-      <c r="N214" s="1" t="s">
+      <c r="O214" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P214" s="1" t="s">
         <v>2381</v>
-      </c>
-      <c r="O214" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="P214" s="1" t="s">
-        <v>2382</v>
       </c>
       <c r="Q214" s="3">
         <v>26647</v>
@@ -46734,12 +46706,7 @@
       <c r="AA214" s="1">
         <v>0</v>
       </c>
-      <c r="AC214" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD214" s="1" t="s">
-        <v>2331</v>
-      </c>
+      <c r="AC214" s="3"/>
       <c r="AF214" s="1" t="s">
         <v>103</v>
       </c>
@@ -46789,7 +46756,7 @@
         <v>107</v>
       </c>
       <c r="AZ214" s="1" t="s">
-        <v>2383</v>
+        <v>2382</v>
       </c>
       <c r="BB214" s="1">
         <v>3</v>
@@ -46807,10 +46774,10 @@
         <v>111</v>
       </c>
       <c r="BH214" s="1" t="s">
+        <v>2383</v>
+      </c>
+      <c r="BI214" s="1" t="s">
         <v>2384</v>
-      </c>
-      <c r="BI214" s="1" t="s">
-        <v>2385</v>
       </c>
       <c r="BM214" s="1" t="s">
         <v>114</v>
@@ -46819,7 +46786,7 @@
         <v>102</v>
       </c>
       <c r="BT214" s="1" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="BU214" s="1" t="s">
         <v>118</v>
@@ -46837,13 +46804,13 @@
         <v>107</v>
       </c>
       <c r="CC214" s="1" t="s">
+        <v>2386</v>
+      </c>
+      <c r="CD214" s="1" t="s">
+        <v>2386</v>
+      </c>
+      <c r="CE214" s="1" t="s">
         <v>2387</v>
-      </c>
-      <c r="CD214" s="1" t="s">
-        <v>2387</v>
-      </c>
-      <c r="CE214" s="1" t="s">
-        <v>2388</v>
       </c>
     </row>
     <row r="215" spans="1:83" x14ac:dyDescent="0.25">
@@ -46878,19 +46845,19 @@
         <v>93</v>
       </c>
       <c r="K215" s="1" t="s">
+        <v>2388</v>
+      </c>
+      <c r="L215" s="1" t="s">
         <v>2389</v>
       </c>
-      <c r="L215" s="1" t="s">
+      <c r="N215" s="1" t="s">
         <v>2390</v>
       </c>
-      <c r="N215" s="1" t="s">
+      <c r="O215" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P215" s="1" t="s">
         <v>2391</v>
-      </c>
-      <c r="O215" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="P215" s="1" t="s">
-        <v>2392</v>
       </c>
       <c r="Q215" s="3">
         <v>25405</v>
@@ -46919,12 +46886,7 @@
       <c r="AA215" s="1">
         <v>0</v>
       </c>
-      <c r="AC215" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD215" s="1" t="s">
-        <v>2331</v>
-      </c>
+      <c r="AC215" s="3"/>
       <c r="AF215" s="1" t="s">
         <v>103</v>
       </c>
@@ -46971,7 +46933,7 @@
         <v>107</v>
       </c>
       <c r="AZ215" s="1" t="s">
-        <v>2393</v>
+        <v>2392</v>
       </c>
       <c r="BB215" s="1">
         <v>3</v>
@@ -46980,7 +46942,7 @@
         <v>18</v>
       </c>
       <c r="BD215" s="1" t="s">
-        <v>2394</v>
+        <v>2393</v>
       </c>
       <c r="BE215" s="1" t="s">
         <v>109</v>
@@ -46992,7 +46954,7 @@
         <v>111</v>
       </c>
       <c r="BH215" s="1" t="s">
-        <v>2395</v>
+        <v>2394</v>
       </c>
       <c r="BI215" s="1" t="s">
         <v>462</v>
@@ -47007,13 +46969,13 @@
         <v>115</v>
       </c>
       <c r="BR215" s="1" t="s">
-        <v>2396</v>
+        <v>2395</v>
       </c>
       <c r="BS215" s="3">
         <v>35243</v>
       </c>
       <c r="BT215" s="1" t="s">
-        <v>2397</v>
+        <v>2396</v>
       </c>
       <c r="BU215" s="1" t="s">
         <v>118</v>
@@ -47031,13 +46993,13 @@
         <v>107</v>
       </c>
       <c r="CC215" s="1" t="s">
+        <v>2397</v>
+      </c>
+      <c r="CD215" s="1" t="s">
         <v>2398</v>
       </c>
-      <c r="CD215" s="1" t="s">
+      <c r="CE215" s="1" t="s">
         <v>2399</v>
-      </c>
-      <c r="CE215" s="1" t="s">
-        <v>2400</v>
       </c>
     </row>
     <row r="216" spans="1:83" x14ac:dyDescent="0.25">
@@ -47072,19 +47034,19 @@
         <v>93</v>
       </c>
       <c r="K216" s="1" t="s">
+        <v>2400</v>
+      </c>
+      <c r="L216" s="1" t="s">
         <v>2401</v>
       </c>
-      <c r="L216" s="1" t="s">
+      <c r="N216" s="1" t="s">
         <v>2402</v>
       </c>
-      <c r="N216" s="1" t="s">
+      <c r="O216" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P216" s="1" t="s">
         <v>2403</v>
-      </c>
-      <c r="O216" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="P216" s="1" t="s">
-        <v>2404</v>
       </c>
       <c r="Q216" s="3">
         <v>28845</v>
@@ -47107,12 +47069,7 @@
       <c r="AA216" s="1">
         <v>0</v>
       </c>
-      <c r="AC216" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD216" s="1" t="s">
-        <v>2331</v>
-      </c>
+      <c r="AC216" s="3"/>
       <c r="AF216" s="1" t="s">
         <v>103</v>
       </c>
@@ -47162,7 +47119,7 @@
         <v>107</v>
       </c>
       <c r="AZ216" s="1" t="s">
-        <v>2405</v>
+        <v>2404</v>
       </c>
       <c r="BB216" s="1">
         <v>3</v>
@@ -47180,10 +47137,10 @@
         <v>111</v>
       </c>
       <c r="BH216" s="1" t="s">
-        <v>2406</v>
+        <v>2405</v>
       </c>
       <c r="BI216" s="1" t="s">
-        <v>2385</v>
+        <v>2384</v>
       </c>
       <c r="BM216" s="1" t="s">
         <v>114</v>
@@ -47192,7 +47149,7 @@
         <v>102</v>
       </c>
       <c r="BT216" s="1" t="s">
-        <v>2407</v>
+        <v>2406</v>
       </c>
       <c r="BU216" s="1" t="s">
         <v>118</v>
@@ -47210,13 +47167,13 @@
         <v>107</v>
       </c>
       <c r="CC216" s="1" t="s">
+        <v>2407</v>
+      </c>
+      <c r="CD216" s="1" t="s">
         <v>2408</v>
       </c>
-      <c r="CD216" s="1" t="s">
+      <c r="CE216" s="1" t="s">
         <v>2409</v>
-      </c>
-      <c r="CE216" s="1" t="s">
-        <v>2410</v>
       </c>
     </row>
     <row r="217" spans="1:83" x14ac:dyDescent="0.25">
@@ -47251,19 +47208,19 @@
         <v>93</v>
       </c>
       <c r="K217" s="1" t="s">
+        <v>2410</v>
+      </c>
+      <c r="L217" s="1" t="s">
         <v>2411</v>
       </c>
-      <c r="L217" s="1" t="s">
+      <c r="N217" s="1" t="s">
         <v>2412</v>
       </c>
-      <c r="N217" s="1" t="s">
+      <c r="O217" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P217" s="1" t="s">
         <v>2413</v>
-      </c>
-      <c r="O217" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="P217" s="1" t="s">
-        <v>2414</v>
       </c>
       <c r="Q217" s="3">
         <v>21425</v>
@@ -47286,12 +47243,7 @@
       <c r="AA217" s="1">
         <v>0</v>
       </c>
-      <c r="AC217" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD217" s="1" t="s">
-        <v>2331</v>
-      </c>
+      <c r="AC217" s="3"/>
       <c r="AF217" s="1" t="s">
         <v>103</v>
       </c>
@@ -47341,7 +47293,7 @@
         <v>107</v>
       </c>
       <c r="AZ217" s="1" t="s">
-        <v>2415</v>
+        <v>2414</v>
       </c>
       <c r="BB217" s="1">
         <v>3</v>
@@ -47359,10 +47311,10 @@
         <v>111</v>
       </c>
       <c r="BH217" s="1" t="s">
-        <v>2416</v>
+        <v>2415</v>
       </c>
       <c r="BI217" s="1" t="s">
-        <v>2385</v>
+        <v>2384</v>
       </c>
       <c r="BM217" s="1" t="s">
         <v>114</v>
@@ -47374,7 +47326,7 @@
         <v>155</v>
       </c>
       <c r="BT217" s="1" t="s">
-        <v>2417</v>
+        <v>2416</v>
       </c>
       <c r="BU217" s="1" t="s">
         <v>118</v>
@@ -47392,13 +47344,13 @@
         <v>107</v>
       </c>
       <c r="CC217" s="1" t="s">
+        <v>2417</v>
+      </c>
+      <c r="CD217" s="1" t="s">
         <v>2418</v>
       </c>
-      <c r="CD217" s="1" t="s">
+      <c r="CE217" s="1" t="s">
         <v>2419</v>
-      </c>
-      <c r="CE217" s="1" t="s">
-        <v>2420</v>
       </c>
     </row>
     <row r="218" spans="1:83" x14ac:dyDescent="0.25">
@@ -47433,19 +47385,19 @@
         <v>93</v>
       </c>
       <c r="K218" s="1" t="s">
+        <v>2420</v>
+      </c>
+      <c r="L218" s="1" t="s">
         <v>2421</v>
       </c>
-      <c r="L218" s="1" t="s">
+      <c r="N218" s="1" t="s">
         <v>2422</v>
       </c>
-      <c r="N218" s="1" t="s">
+      <c r="O218" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P218" s="1" t="s">
         <v>2423</v>
-      </c>
-      <c r="O218" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="P218" s="1" t="s">
-        <v>2424</v>
       </c>
       <c r="Q218" s="3">
         <v>23039</v>
@@ -47468,12 +47420,7 @@
       <c r="AA218" s="1">
         <v>0</v>
       </c>
-      <c r="AC218" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD218" s="1" t="s">
-        <v>2331</v>
-      </c>
+      <c r="AC218" s="3"/>
       <c r="AF218" s="1" t="s">
         <v>103</v>
       </c>
@@ -47520,7 +47467,7 @@
         <v>107</v>
       </c>
       <c r="AZ218" s="1" t="s">
-        <v>2425</v>
+        <v>2424</v>
       </c>
       <c r="BB218" s="1">
         <v>3</v>
@@ -47529,7 +47476,7 @@
         <v>18</v>
       </c>
       <c r="BD218" s="1" t="s">
-        <v>2426</v>
+        <v>2425</v>
       </c>
       <c r="BE218" s="1" t="s">
         <v>109</v>
@@ -47541,10 +47488,10 @@
         <v>111</v>
       </c>
       <c r="BH218" s="1" t="s">
+        <v>2426</v>
+      </c>
+      <c r="BI218" s="1" t="s">
         <v>2427</v>
-      </c>
-      <c r="BI218" s="1" t="s">
-        <v>2428</v>
       </c>
       <c r="BM218" s="1" t="s">
         <v>114</v>
@@ -47556,13 +47503,13 @@
         <v>218</v>
       </c>
       <c r="BR218" s="1" t="s">
-        <v>2429</v>
+        <v>2428</v>
       </c>
       <c r="BS218" s="3">
         <v>34307</v>
       </c>
       <c r="BT218" s="1" t="s">
-        <v>2430</v>
+        <v>2429</v>
       </c>
       <c r="BU218" s="1" t="s">
         <v>118</v>
@@ -47580,13 +47527,13 @@
         <v>107</v>
       </c>
       <c r="CC218" s="1" t="s">
-        <v>2431</v>
+        <v>2430</v>
       </c>
       <c r="CD218" s="1" t="s">
         <v>453</v>
       </c>
       <c r="CE218" s="1" t="s">
-        <v>2432</v>
+        <v>2431</v>
       </c>
     </row>
     <row r="219" spans="1:83" x14ac:dyDescent="0.25">
@@ -47621,19 +47568,19 @@
         <v>93</v>
       </c>
       <c r="K219" s="1" t="s">
+        <v>2432</v>
+      </c>
+      <c r="L219" s="1" t="s">
         <v>2433</v>
       </c>
-      <c r="L219" s="1" t="s">
+      <c r="N219" s="1" t="s">
         <v>2434</v>
       </c>
-      <c r="N219" s="1" t="s">
+      <c r="O219" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P219" s="1" t="s">
         <v>2435</v>
-      </c>
-      <c r="O219" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="P219" s="1" t="s">
-        <v>2436</v>
       </c>
       <c r="Q219" s="3">
         <v>23286</v>
@@ -47659,12 +47606,7 @@
       <c r="AA219" s="1">
         <v>0</v>
       </c>
-      <c r="AC219" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD219" s="1" t="s">
-        <v>2331</v>
-      </c>
+      <c r="AC219" s="3"/>
       <c r="AF219" s="1" t="s">
         <v>103</v>
       </c>
@@ -47714,7 +47656,7 @@
         <v>107</v>
       </c>
       <c r="AZ219" s="1" t="s">
-        <v>2437</v>
+        <v>2436</v>
       </c>
       <c r="BB219" s="1">
         <v>3</v>
@@ -47735,7 +47677,7 @@
         <v>111</v>
       </c>
       <c r="BH219" s="1" t="s">
-        <v>2438</v>
+        <v>2437</v>
       </c>
       <c r="BI219" s="1" t="s">
         <v>842</v>
@@ -47747,7 +47689,7 @@
         <v>102</v>
       </c>
       <c r="BT219" s="1" t="s">
-        <v>2439</v>
+        <v>2438</v>
       </c>
       <c r="BU219" s="1" t="s">
         <v>118</v>
@@ -47768,13 +47710,13 @@
         <v>107</v>
       </c>
       <c r="CC219" s="1" t="s">
+        <v>2439</v>
+      </c>
+      <c r="CD219" s="1" t="s">
         <v>2440</v>
       </c>
-      <c r="CD219" s="1" t="s">
+      <c r="CE219" s="1" t="s">
         <v>2441</v>
-      </c>
-      <c r="CE219" s="1" t="s">
-        <v>2442</v>
       </c>
     </row>
     <row r="220" spans="1:83" x14ac:dyDescent="0.25">
@@ -47809,19 +47751,19 @@
         <v>93</v>
       </c>
       <c r="K220" s="1" t="s">
+        <v>2442</v>
+      </c>
+      <c r="L220" s="1" t="s">
         <v>2443</v>
       </c>
-      <c r="L220" s="1" t="s">
+      <c r="N220" s="1" t="s">
         <v>2444</v>
       </c>
-      <c r="N220" s="1" t="s">
+      <c r="O220" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P220" s="1" t="s">
         <v>2445</v>
-      </c>
-      <c r="O220" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="P220" s="1" t="s">
-        <v>2446</v>
       </c>
       <c r="Q220" s="3">
         <v>26907</v>
@@ -47844,12 +47786,7 @@
       <c r="AA220" s="1">
         <v>0</v>
       </c>
-      <c r="AC220" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD220" s="1" t="s">
-        <v>2331</v>
-      </c>
+      <c r="AC220" s="3"/>
       <c r="AF220" s="1" t="s">
         <v>103</v>
       </c>
@@ -47896,7 +47833,7 @@
         <v>107</v>
       </c>
       <c r="AZ220" s="1" t="s">
-        <v>2447</v>
+        <v>2446</v>
       </c>
       <c r="BB220" s="1">
         <v>3</v>
@@ -47917,10 +47854,10 @@
         <v>111</v>
       </c>
       <c r="BH220" s="1" t="s">
+        <v>2447</v>
+      </c>
+      <c r="BI220" s="1" t="s">
         <v>2448</v>
-      </c>
-      <c r="BI220" s="1" t="s">
-        <v>2449</v>
       </c>
       <c r="BM220" s="1" t="s">
         <v>114</v>
@@ -47932,13 +47869,13 @@
         <v>115</v>
       </c>
       <c r="BR220" s="1" t="s">
-        <v>2450</v>
+        <v>2449</v>
       </c>
       <c r="BS220" s="3">
         <v>35950</v>
       </c>
       <c r="BT220" s="1" t="s">
-        <v>2451</v>
+        <v>2450</v>
       </c>
       <c r="BU220" s="1" t="s">
         <v>118</v>
@@ -47956,13 +47893,13 @@
         <v>107</v>
       </c>
       <c r="CC220" s="1" t="s">
-        <v>2452</v>
+        <v>2451</v>
       </c>
       <c r="CD220" s="1" t="s">
         <v>1758</v>
       </c>
       <c r="CE220" s="1" t="s">
-        <v>2453</v>
+        <v>2452</v>
       </c>
     </row>
     <row r="221" spans="1:83" x14ac:dyDescent="0.25">
@@ -47997,19 +47934,19 @@
         <v>162</v>
       </c>
       <c r="K221" s="1" t="s">
+        <v>2453</v>
+      </c>
+      <c r="L221" s="1" t="s">
         <v>2454</v>
       </c>
-      <c r="L221" s="1" t="s">
+      <c r="N221" s="1" t="s">
         <v>2455</v>
       </c>
-      <c r="N221" s="1" t="s">
+      <c r="O221" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P221" s="1" t="s">
         <v>2456</v>
-      </c>
-      <c r="O221" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="P221" s="1" t="s">
-        <v>2457</v>
       </c>
       <c r="Q221" s="3">
         <v>26349</v>
@@ -48054,7 +47991,7 @@
         <v>0</v>
       </c>
       <c r="AN221" s="1" t="s">
-        <v>2458</v>
+        <v>2457</v>
       </c>
       <c r="AO221" s="1">
         <v>0</v>
@@ -48099,13 +48036,13 @@
         <v>111</v>
       </c>
       <c r="BH221" s="1" t="s">
-        <v>2459</v>
+        <v>2458</v>
       </c>
       <c r="BM221" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BT221" s="1" t="s">
-        <v>2460</v>
+        <v>2459</v>
       </c>
       <c r="BU221" s="1" t="s">
         <v>118</v>
@@ -48129,10 +48066,10 @@
         <v>2216</v>
       </c>
       <c r="CD221" s="1" t="s">
+        <v>2460</v>
+      </c>
+      <c r="CE221" s="1" t="s">
         <v>2461</v>
-      </c>
-      <c r="CE221" s="1" t="s">
-        <v>2462</v>
       </c>
     </row>
     <row r="222" spans="1:83" x14ac:dyDescent="0.25">
@@ -48167,19 +48104,19 @@
         <v>162</v>
       </c>
       <c r="K222" s="1" t="s">
+        <v>2462</v>
+      </c>
+      <c r="L222" s="1" t="s">
         <v>2463</v>
       </c>
-      <c r="L222" s="1" t="s">
+      <c r="N222" s="1" t="s">
         <v>2464</v>
       </c>
-      <c r="N222" s="1" t="s">
+      <c r="O222" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P222" s="1" t="s">
         <v>2465</v>
-      </c>
-      <c r="O222" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="P222" s="1" t="s">
-        <v>2466</v>
       </c>
       <c r="Q222" s="3">
         <v>30589</v>
@@ -48227,7 +48164,7 @@
         <v>0</v>
       </c>
       <c r="AN222" s="1" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
       <c r="AO222" s="1">
         <v>0</v>
@@ -48272,13 +48209,13 @@
         <v>111</v>
       </c>
       <c r="BH222" s="1" t="s">
-        <v>2467</v>
+        <v>2466</v>
       </c>
       <c r="BM222" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BT222" s="1" t="s">
-        <v>2468</v>
+        <v>2467</v>
       </c>
       <c r="BU222" s="1" t="s">
         <v>118</v>
@@ -48299,13 +48236,13 @@
         <v>107</v>
       </c>
       <c r="CC222" s="1" t="s">
+        <v>2468</v>
+      </c>
+      <c r="CD222" s="1" t="s">
         <v>2469</v>
       </c>
-      <c r="CD222" s="1" t="s">
+      <c r="CE222" s="1" t="s">
         <v>2470</v>
-      </c>
-      <c r="CE222" s="1" t="s">
-        <v>2471</v>
       </c>
     </row>
     <row r="223" spans="1:83" x14ac:dyDescent="0.25">
@@ -48340,19 +48277,19 @@
         <v>162</v>
       </c>
       <c r="K223" s="1" t="s">
+        <v>2471</v>
+      </c>
+      <c r="L223" s="1" t="s">
         <v>2472</v>
       </c>
-      <c r="L223" s="1" t="s">
+      <c r="N223" s="1" t="s">
         <v>2473</v>
       </c>
-      <c r="N223" s="1" t="s">
+      <c r="O223" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P223" s="1" t="s">
         <v>2474</v>
-      </c>
-      <c r="O223" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="P223" s="1" t="s">
-        <v>2475</v>
       </c>
       <c r="Q223" s="3">
         <v>27354</v>
@@ -48400,7 +48337,7 @@
         <v>0</v>
       </c>
       <c r="AN223" s="1" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
       <c r="AO223" s="1">
         <v>0</v>
@@ -48445,13 +48382,13 @@
         <v>111</v>
       </c>
       <c r="BH223" s="1" t="s">
-        <v>2476</v>
+        <v>2475</v>
       </c>
       <c r="BM223" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BT223" s="1" t="s">
-        <v>2477</v>
+        <v>2476</v>
       </c>
       <c r="BU223" s="1" t="s">
         <v>118</v>
@@ -48472,13 +48409,13 @@
         <v>107</v>
       </c>
       <c r="CC223" s="1" t="s">
+        <v>2477</v>
+      </c>
+      <c r="CD223" s="1" t="s">
         <v>2478</v>
       </c>
-      <c r="CD223" s="1" t="s">
+      <c r="CE223" s="1" t="s">
         <v>2479</v>
-      </c>
-      <c r="CE223" s="1" t="s">
-        <v>2480</v>
       </c>
     </row>
     <row r="224" spans="1:83" x14ac:dyDescent="0.25">
@@ -48513,19 +48450,19 @@
         <v>162</v>
       </c>
       <c r="K224" s="1" t="s">
+        <v>2480</v>
+      </c>
+      <c r="L224" s="1" t="s">
         <v>2481</v>
       </c>
-      <c r="L224" s="1" t="s">
+      <c r="N224" s="1" t="s">
         <v>2482</v>
       </c>
-      <c r="N224" s="1" t="s">
+      <c r="O224" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P224" s="1" t="s">
         <v>2483</v>
-      </c>
-      <c r="O224" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="P224" s="1" t="s">
-        <v>2484</v>
       </c>
       <c r="Q224" s="3">
         <v>13756</v>
@@ -48615,13 +48552,13 @@
         <v>111</v>
       </c>
       <c r="BH224" s="1" t="s">
-        <v>2485</v>
+        <v>2484</v>
       </c>
       <c r="BM224" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BT224" s="1" t="s">
-        <v>2486</v>
+        <v>2485</v>
       </c>
       <c r="BU224" s="1" t="s">
         <v>118</v>
@@ -48642,10 +48579,10 @@
         <v>107</v>
       </c>
       <c r="CC224" s="1" t="s">
-        <v>2336</v>
+        <v>2335</v>
       </c>
       <c r="CD224" s="1" t="s">
-        <v>2487</v>
+        <v>2486</v>
       </c>
       <c r="CE224" s="1" t="s">
         <v>205</v>
@@ -48683,19 +48620,19 @@
         <v>162</v>
       </c>
       <c r="K225" s="1" t="s">
+        <v>2487</v>
+      </c>
+      <c r="L225" s="1" t="s">
         <v>2488</v>
       </c>
-      <c r="L225" s="1" t="s">
+      <c r="N225" s="1" t="s">
         <v>2489</v>
       </c>
-      <c r="N225" s="1" t="s">
+      <c r="O225" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P225" s="1" t="s">
         <v>2490</v>
-      </c>
-      <c r="O225" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="P225" s="1" t="s">
-        <v>2491</v>
       </c>
       <c r="Q225" s="3">
         <v>26074</v>
@@ -48743,7 +48680,7 @@
         <v>0</v>
       </c>
       <c r="AN225" s="1" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
       <c r="AO225" s="1">
         <v>0</v>
@@ -48788,13 +48725,13 @@
         <v>111</v>
       </c>
       <c r="BH225" s="1" t="s">
-        <v>2467</v>
+        <v>2466</v>
       </c>
       <c r="BM225" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BT225" s="1" t="s">
-        <v>2492</v>
+        <v>2491</v>
       </c>
       <c r="BU225" s="1" t="s">
         <v>118</v>
@@ -48818,13 +48755,13 @@
         <v>107</v>
       </c>
       <c r="CC225" s="1" t="s">
-        <v>2493</v>
+        <v>2492</v>
       </c>
       <c r="CD225" s="1" t="s">
         <v>1223</v>
       </c>
       <c r="CE225" s="1" t="s">
-        <v>2494</v>
+        <v>2493</v>
       </c>
     </row>
     <row r="226" spans="1:83" x14ac:dyDescent="0.25">
@@ -48859,19 +48796,19 @@
         <v>162</v>
       </c>
       <c r="K226" s="1" t="s">
+        <v>2494</v>
+      </c>
+      <c r="L226" s="1" t="s">
         <v>2495</v>
       </c>
-      <c r="L226" s="1" t="s">
+      <c r="N226" s="1" t="s">
         <v>2496</v>
       </c>
-      <c r="N226" s="1" t="s">
+      <c r="O226" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P226" s="1" t="s">
         <v>2497</v>
-      </c>
-      <c r="O226" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="P226" s="1" t="s">
-        <v>2498</v>
       </c>
       <c r="Q226" s="3">
         <v>28808</v>
@@ -48916,7 +48853,7 @@
         <v>0</v>
       </c>
       <c r="AN226" s="1" t="s">
-        <v>2499</v>
+        <v>2498</v>
       </c>
       <c r="AO226" s="1">
         <v>0</v>
@@ -48961,13 +48898,13 @@
         <v>111</v>
       </c>
       <c r="BH226" s="1" t="s">
-        <v>2500</v>
+        <v>2499</v>
       </c>
       <c r="BM226" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BT226" s="1" t="s">
-        <v>2501</v>
+        <v>2500</v>
       </c>
       <c r="BU226" s="1" t="s">
         <v>118</v>
@@ -48988,13 +48925,13 @@
         <v>107</v>
       </c>
       <c r="CC226" s="1" t="s">
+        <v>2501</v>
+      </c>
+      <c r="CD226" s="1" t="s">
+        <v>2408</v>
+      </c>
+      <c r="CE226" s="1" t="s">
         <v>2502</v>
-      </c>
-      <c r="CD226" s="1" t="s">
-        <v>2409</v>
-      </c>
-      <c r="CE226" s="1" t="s">
-        <v>2503</v>
       </c>
     </row>
     <row r="227" spans="1:83" x14ac:dyDescent="0.25">
@@ -49029,10 +48966,10 @@
         <v>93</v>
       </c>
       <c r="K227" s="1" t="s">
+        <v>2503</v>
+      </c>
+      <c r="L227" s="1" t="s">
         <v>2504</v>
-      </c>
-      <c r="L227" s="1" t="s">
-        <v>2505</v>
       </c>
       <c r="O227" s="1" t="s">
         <v>229</v>
@@ -49098,7 +49035,7 @@
         <v>16</v>
       </c>
       <c r="BD227" s="1" t="s">
-        <v>2506</v>
+        <v>2505</v>
       </c>
       <c r="BX227" s="1">
         <v>0</v>
@@ -49116,7 +49053,7 @@
         <v>233</v>
       </c>
       <c r="CE227" s="1" t="s">
-        <v>2505</v>
+        <v>2504</v>
       </c>
     </row>
     <row r="228" spans="1:83" x14ac:dyDescent="0.25">
@@ -49145,16 +49082,16 @@
         <v>91</v>
       </c>
       <c r="I228" s="1" t="s">
-        <v>2507</v>
+        <v>2506</v>
       </c>
       <c r="J228" s="1" t="s">
         <v>93</v>
       </c>
       <c r="K228" s="1" t="s">
+        <v>2507</v>
+      </c>
+      <c r="L228" s="1" t="s">
         <v>2508</v>
-      </c>
-      <c r="L228" s="1" t="s">
-        <v>2509</v>
       </c>
       <c r="O228" s="1" t="s">
         <v>229</v>
@@ -49223,7 +49160,7 @@
         <v>0</v>
       </c>
       <c r="BZ228" s="1" t="s">
-        <v>2510</v>
+        <v>2509</v>
       </c>
       <c r="CA228" s="1" t="s">
         <v>120</v>
@@ -49235,7 +49172,7 @@
         <v>233</v>
       </c>
       <c r="CE228" s="1" t="s">
-        <v>2509</v>
+        <v>2508</v>
       </c>
     </row>
     <row r="229" spans="1:83" x14ac:dyDescent="0.25">
@@ -49270,19 +49207,19 @@
         <v>93</v>
       </c>
       <c r="K229" s="1" t="s">
+        <v>2510</v>
+      </c>
+      <c r="L229" s="1" t="s">
         <v>2511</v>
       </c>
-      <c r="L229" s="1" t="s">
+      <c r="N229" s="1" t="s">
         <v>2512</v>
       </c>
-      <c r="N229" s="1" t="s">
+      <c r="O229" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P229" s="1" t="s">
         <v>2513</v>
-      </c>
-      <c r="O229" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="P229" s="1" t="s">
-        <v>2514</v>
       </c>
       <c r="Q229" s="3">
         <v>28642</v>
@@ -49354,7 +49291,7 @@
         <v>107</v>
       </c>
       <c r="AZ229" s="1" t="s">
-        <v>2515</v>
+        <v>2514</v>
       </c>
       <c r="BB229" s="1">
         <v>3</v>
@@ -49372,7 +49309,7 @@
         <v>111</v>
       </c>
       <c r="BH229" s="1" t="s">
-        <v>2516</v>
+        <v>2515</v>
       </c>
       <c r="BI229" s="1" t="s">
         <v>2262</v>
@@ -49387,7 +49324,7 @@
         <v>155</v>
       </c>
       <c r="BT229" s="1" t="s">
-        <v>2517</v>
+        <v>2516</v>
       </c>
       <c r="BU229" s="1" t="s">
         <v>118</v>
@@ -49405,13 +49342,13 @@
         <v>107</v>
       </c>
       <c r="CC229" s="1" t="s">
-        <v>2518</v>
+        <v>2517</v>
       </c>
       <c r="CD229" s="1" t="s">
         <v>453</v>
       </c>
       <c r="CE229" s="1" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
     </row>
     <row r="230" spans="1:83" x14ac:dyDescent="0.25">
@@ -49446,19 +49383,19 @@
         <v>93</v>
       </c>
       <c r="K230" s="1" t="s">
+        <v>2519</v>
+      </c>
+      <c r="L230" s="1" t="s">
         <v>2520</v>
       </c>
-      <c r="L230" s="1" t="s">
+      <c r="N230" s="1" t="s">
         <v>2521</v>
       </c>
-      <c r="N230" s="1" t="s">
+      <c r="O230" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P230" s="1" t="s">
         <v>2522</v>
-      </c>
-      <c r="O230" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="P230" s="1" t="s">
-        <v>2523</v>
       </c>
       <c r="Q230" s="3">
         <v>28239</v>
@@ -49527,7 +49464,7 @@
         <v>107</v>
       </c>
       <c r="AZ230" s="1" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
       <c r="BB230" s="1">
         <v>3</v>
@@ -49545,7 +49482,7 @@
         <v>111</v>
       </c>
       <c r="BH230" s="1" t="s">
-        <v>2525</v>
+        <v>2524</v>
       </c>
       <c r="BI230" s="1" t="s">
         <v>1844</v>
@@ -49560,13 +49497,13 @@
         <v>218</v>
       </c>
       <c r="BR230" s="1" t="s">
-        <v>2526</v>
+        <v>2525</v>
       </c>
       <c r="BS230" s="3">
         <v>36099</v>
       </c>
       <c r="BT230" s="1" t="s">
-        <v>2527</v>
+        <v>2526</v>
       </c>
       <c r="BU230" s="1" t="s">
         <v>118</v>
@@ -49584,13 +49521,13 @@
         <v>107</v>
       </c>
       <c r="CC230" s="1" t="s">
+        <v>2527</v>
+      </c>
+      <c r="CD230" s="1" t="s">
         <v>2528</v>
       </c>
-      <c r="CD230" s="1" t="s">
+      <c r="CE230" s="1" t="s">
         <v>2529</v>
-      </c>
-      <c r="CE230" s="1" t="s">
-        <v>2530</v>
       </c>
     </row>
     <row r="231" spans="1:83" x14ac:dyDescent="0.25">
@@ -49625,19 +49562,19 @@
         <v>93</v>
       </c>
       <c r="K231" s="1" t="s">
+        <v>2530</v>
+      </c>
+      <c r="L231" s="1" t="s">
         <v>2531</v>
       </c>
-      <c r="L231" s="1" t="s">
+      <c r="N231" s="1" t="s">
         <v>2532</v>
       </c>
-      <c r="N231" s="1" t="s">
+      <c r="O231" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P231" s="1" t="s">
         <v>2533</v>
-      </c>
-      <c r="O231" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="P231" s="1" t="s">
-        <v>2534</v>
       </c>
       <c r="Q231" s="3">
         <v>25589</v>
@@ -49706,7 +49643,7 @@
         <v>107</v>
       </c>
       <c r="AZ231" s="1" t="s">
-        <v>2535</v>
+        <v>2534</v>
       </c>
       <c r="BB231" s="1">
         <v>3</v>
@@ -49724,7 +49661,7 @@
         <v>111</v>
       </c>
       <c r="BH231" s="1" t="s">
-        <v>2536</v>
+        <v>2535</v>
       </c>
       <c r="BI231" s="1" t="s">
         <v>1822</v>
@@ -49739,13 +49676,13 @@
         <v>99</v>
       </c>
       <c r="BR231" s="1" t="s">
-        <v>2537</v>
+        <v>2536</v>
       </c>
       <c r="BS231" s="3">
         <v>37735</v>
       </c>
       <c r="BT231" s="1" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
       <c r="BU231" s="1" t="s">
         <v>118</v>
@@ -49763,13 +49700,13 @@
         <v>107</v>
       </c>
       <c r="CC231" s="1" t="s">
+        <v>2538</v>
+      </c>
+      <c r="CD231" s="1" t="s">
         <v>2539</v>
       </c>
-      <c r="CD231" s="1" t="s">
+      <c r="CE231" s="1" t="s">
         <v>2540</v>
-      </c>
-      <c r="CE231" s="1" t="s">
-        <v>2541</v>
       </c>
     </row>
     <row r="232" spans="1:83" x14ac:dyDescent="0.25">
@@ -49804,19 +49741,19 @@
         <v>93</v>
       </c>
       <c r="K232" s="1" t="s">
+        <v>2541</v>
+      </c>
+      <c r="L232" s="1" t="s">
         <v>2542</v>
       </c>
-      <c r="L232" s="1" t="s">
+      <c r="N232" s="1" t="s">
         <v>2543</v>
       </c>
-      <c r="N232" s="1" t="s">
+      <c r="O232" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P232" s="1" t="s">
         <v>2544</v>
-      </c>
-      <c r="O232" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="P232" s="1" t="s">
-        <v>2545</v>
       </c>
       <c r="Q232" s="3">
         <v>29170</v>
@@ -49888,7 +49825,7 @@
         <v>107</v>
       </c>
       <c r="AZ232" s="1" t="s">
-        <v>2546</v>
+        <v>2545</v>
       </c>
       <c r="BB232" s="1">
         <v>3</v>
@@ -49906,7 +49843,7 @@
         <v>111</v>
       </c>
       <c r="BH232" s="1" t="s">
-        <v>2547</v>
+        <v>2546</v>
       </c>
       <c r="BI232" s="1" t="s">
         <v>2262</v>
@@ -49918,7 +49855,7 @@
         <v>102</v>
       </c>
       <c r="BT232" s="1" t="s">
-        <v>2548</v>
+        <v>2547</v>
       </c>
       <c r="BU232" s="1" t="s">
         <v>118</v>
@@ -49936,13 +49873,13 @@
         <v>107</v>
       </c>
       <c r="CC232" s="1" t="s">
-        <v>2549</v>
+        <v>2548</v>
       </c>
       <c r="CD232" s="1" t="s">
         <v>872</v>
       </c>
       <c r="CE232" s="1" t="s">
-        <v>2550</v>
+        <v>2549</v>
       </c>
     </row>
     <row r="233" spans="1:83" x14ac:dyDescent="0.25">
@@ -49977,19 +49914,19 @@
         <v>93</v>
       </c>
       <c r="K233" s="1" t="s">
+        <v>2550</v>
+      </c>
+      <c r="L233" s="1" t="s">
         <v>2551</v>
       </c>
-      <c r="L233" s="1" t="s">
+      <c r="N233" s="1" t="s">
         <v>2552</v>
       </c>
-      <c r="N233" s="1" t="s">
+      <c r="O233" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P233" s="1" t="s">
         <v>2553</v>
-      </c>
-      <c r="O233" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="P233" s="1" t="s">
-        <v>2554</v>
       </c>
       <c r="Q233" s="3">
         <v>27250</v>
@@ -50016,7 +49953,7 @@
         <v>103</v>
       </c>
       <c r="AG233" s="1" t="s">
-        <v>2555</v>
+        <v>2554</v>
       </c>
       <c r="AH233" s="1" t="s">
         <v>1865</v>
@@ -50061,7 +49998,7 @@
         <v>107</v>
       </c>
       <c r="AZ233" s="1" t="s">
-        <v>2556</v>
+        <v>2555</v>
       </c>
       <c r="BB233" s="1">
         <v>3</v>
@@ -50079,7 +50016,7 @@
         <v>111</v>
       </c>
       <c r="BH233" s="1" t="s">
-        <v>2557</v>
+        <v>2556</v>
       </c>
       <c r="BI233" s="1" t="s">
         <v>1795</v>
@@ -50091,7 +50028,7 @@
         <v>102</v>
       </c>
       <c r="BT233" s="1" t="s">
-        <v>2558</v>
+        <v>2557</v>
       </c>
       <c r="BU233" s="1" t="s">
         <v>118</v>
@@ -50112,10 +50049,10 @@
         <v>1562</v>
       </c>
       <c r="CD233" s="1" t="s">
+        <v>2558</v>
+      </c>
+      <c r="CE233" s="1" t="s">
         <v>2559</v>
-      </c>
-      <c r="CE233" s="1" t="s">
-        <v>2560</v>
       </c>
     </row>
     <row r="234" spans="1:83" x14ac:dyDescent="0.25">
@@ -50150,19 +50087,19 @@
         <v>93</v>
       </c>
       <c r="K234" s="1" t="s">
+        <v>2560</v>
+      </c>
+      <c r="L234" s="1" t="s">
         <v>2561</v>
       </c>
-      <c r="L234" s="1" t="s">
+      <c r="N234" s="1" t="s">
         <v>2562</v>
       </c>
-      <c r="N234" s="1" t="s">
+      <c r="O234" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P234" s="1" t="s">
         <v>2563</v>
-      </c>
-      <c r="O234" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="P234" s="1" t="s">
-        <v>2564</v>
       </c>
       <c r="Q234" s="3">
         <v>27999</v>
@@ -50234,7 +50171,7 @@
         <v>107</v>
       </c>
       <c r="AZ234" s="1" t="s">
-        <v>2565</v>
+        <v>2564</v>
       </c>
       <c r="BB234" s="1">
         <v>3</v>
@@ -50252,7 +50189,7 @@
         <v>111</v>
       </c>
       <c r="BH234" s="1" t="s">
-        <v>2566</v>
+        <v>2565</v>
       </c>
       <c r="BI234" s="1" t="s">
         <v>1931</v>
@@ -50264,7 +50201,7 @@
         <v>102</v>
       </c>
       <c r="BT234" s="1" t="s">
-        <v>2567</v>
+        <v>2566</v>
       </c>
       <c r="BU234" s="1" t="s">
         <v>118</v>
@@ -50288,7 +50225,7 @@
         <v>950</v>
       </c>
       <c r="CE234" s="1" t="s">
-        <v>2568</v>
+        <v>2567</v>
       </c>
     </row>
     <row r="235" spans="1:83" x14ac:dyDescent="0.25">
@@ -50323,19 +50260,19 @@
         <v>93</v>
       </c>
       <c r="K235" s="1" t="s">
+        <v>2568</v>
+      </c>
+      <c r="L235" s="1" t="s">
         <v>2569</v>
       </c>
-      <c r="L235" s="1" t="s">
+      <c r="N235" s="1" t="s">
         <v>2570</v>
       </c>
-      <c r="N235" s="1" t="s">
+      <c r="O235" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P235" s="1" t="s">
         <v>2571</v>
-      </c>
-      <c r="O235" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="P235" s="1" t="s">
-        <v>2572</v>
       </c>
       <c r="Q235" s="3">
         <v>29305</v>
@@ -50407,7 +50344,7 @@
         <v>107</v>
       </c>
       <c r="AZ235" s="1" t="s">
-        <v>2573</v>
+        <v>2572</v>
       </c>
       <c r="BB235" s="1">
         <v>3</v>
@@ -50425,7 +50362,7 @@
         <v>111</v>
       </c>
       <c r="BH235" s="1" t="s">
-        <v>2574</v>
+        <v>2573</v>
       </c>
       <c r="BI235" s="1" t="s">
         <v>617</v>
@@ -50437,7 +50374,7 @@
         <v>102</v>
       </c>
       <c r="BT235" s="1" t="s">
-        <v>2575</v>
+        <v>2574</v>
       </c>
       <c r="BU235" s="1" t="s">
         <v>118</v>
@@ -50455,13 +50392,13 @@
         <v>107</v>
       </c>
       <c r="CC235" s="1" t="s">
+        <v>2575</v>
+      </c>
+      <c r="CD235" s="1" t="s">
         <v>2576</v>
       </c>
-      <c r="CD235" s="1" t="s">
+      <c r="CE235" s="1" t="s">
         <v>2577</v>
-      </c>
-      <c r="CE235" s="1" t="s">
-        <v>2578</v>
       </c>
     </row>
     <row r="236" spans="1:83" x14ac:dyDescent="0.25">
@@ -50496,19 +50433,19 @@
         <v>162</v>
       </c>
       <c r="K236" s="1" t="s">
+        <v>2578</v>
+      </c>
+      <c r="L236" s="1" t="s">
         <v>2579</v>
       </c>
-      <c r="L236" s="1" t="s">
+      <c r="N236" s="1" t="s">
         <v>2580</v>
       </c>
-      <c r="N236" s="1" t="s">
+      <c r="O236" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P236" s="1" t="s">
         <v>2581</v>
-      </c>
-      <c r="O236" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="P236" s="1" t="s">
-        <v>2582</v>
       </c>
       <c r="R236" s="1" t="s">
         <v>131</v>
@@ -50544,7 +50481,7 @@
         <v>0</v>
       </c>
       <c r="AN236" s="1" t="s">
-        <v>2583</v>
+        <v>2582</v>
       </c>
       <c r="AO236" s="1">
         <v>0</v>
@@ -50583,13 +50520,13 @@
         <v>111</v>
       </c>
       <c r="BH236" s="1" t="s">
-        <v>2584</v>
+        <v>2583</v>
       </c>
       <c r="BM236" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BT236" s="1" t="s">
-        <v>2585</v>
+        <v>2584</v>
       </c>
       <c r="BU236" s="1" t="s">
         <v>118</v>
@@ -50607,13 +50544,13 @@
         <v>107</v>
       </c>
       <c r="CC236" s="1" t="s">
-        <v>2586</v>
+        <v>2585</v>
       </c>
       <c r="CD236" s="1" t="s">
         <v>315</v>
       </c>
       <c r="CE236" s="1" t="s">
-        <v>2587</v>
+        <v>2586</v>
       </c>
     </row>
     <row r="237" spans="1:83" x14ac:dyDescent="0.25">
@@ -50648,19 +50585,19 @@
         <v>93</v>
       </c>
       <c r="K237" s="1" t="s">
+        <v>2587</v>
+      </c>
+      <c r="L237" s="1" t="s">
         <v>2588</v>
       </c>
-      <c r="L237" s="1" t="s">
+      <c r="N237" s="1" t="s">
         <v>2589</v>
       </c>
-      <c r="N237" s="1" t="s">
+      <c r="O237" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P237" s="1" t="s">
         <v>2590</v>
-      </c>
-      <c r="O237" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="P237" s="1" t="s">
-        <v>2591</v>
       </c>
       <c r="Q237" s="3">
         <v>23125</v>
@@ -50693,7 +50630,7 @@
         <v>42247</v>
       </c>
       <c r="AD237" s="1" t="s">
-        <v>2592</v>
+        <v>2591</v>
       </c>
       <c r="AF237" s="1" t="s">
         <v>103</v>
@@ -50747,7 +50684,7 @@
         <v>18</v>
       </c>
       <c r="BD237" s="1" t="s">
-        <v>2506</v>
+        <v>2505</v>
       </c>
       <c r="BE237" s="1" t="s">
         <v>109</v>
@@ -50759,10 +50696,10 @@
         <v>111</v>
       </c>
       <c r="BH237" s="1" t="s">
+        <v>2592</v>
+      </c>
+      <c r="BI237" s="1" t="s">
         <v>2593</v>
-      </c>
-      <c r="BI237" s="1" t="s">
-        <v>2594</v>
       </c>
       <c r="BM237" s="1" t="s">
         <v>114</v>
@@ -50774,13 +50711,13 @@
         <v>218</v>
       </c>
       <c r="BR237" s="1" t="s">
-        <v>2595</v>
+        <v>2594</v>
       </c>
       <c r="BS237" s="3">
         <v>36580</v>
       </c>
       <c r="BT237" s="1" t="s">
-        <v>2596</v>
+        <v>2595</v>
       </c>
       <c r="BU237" s="1" t="s">
         <v>118</v>
@@ -50801,7 +50738,7 @@
         <v>107</v>
       </c>
       <c r="CC237" s="1" t="s">
-        <v>2597</v>
+        <v>2596</v>
       </c>
       <c r="CD237" s="1" t="s">
         <v>304</v>
@@ -50842,19 +50779,19 @@
         <v>93</v>
       </c>
       <c r="K238" s="1" t="s">
+        <v>2597</v>
+      </c>
+      <c r="L238" s="1" t="s">
         <v>2598</v>
       </c>
-      <c r="L238" s="1" t="s">
+      <c r="N238" s="1" t="s">
         <v>2599</v>
       </c>
-      <c r="N238" s="1" t="s">
+      <c r="O238" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P238" s="1" t="s">
         <v>2600</v>
-      </c>
-      <c r="O238" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="P238" s="1" t="s">
-        <v>2601</v>
       </c>
       <c r="Q238" s="3">
         <v>30023</v>
@@ -50941,10 +50878,10 @@
         <v>111</v>
       </c>
       <c r="BH238" s="1" t="s">
+        <v>2601</v>
+      </c>
+      <c r="BI238" s="1" t="s">
         <v>2602</v>
-      </c>
-      <c r="BI238" s="1" t="s">
-        <v>2603</v>
       </c>
       <c r="BM238" s="1" t="s">
         <v>114</v>
@@ -50956,13 +50893,13 @@
         <v>115</v>
       </c>
       <c r="BR238" s="1" t="s">
-        <v>2604</v>
+        <v>2603</v>
       </c>
       <c r="BS238" s="3">
         <v>37747</v>
       </c>
       <c r="BT238" s="1" t="s">
-        <v>2605</v>
+        <v>2604</v>
       </c>
       <c r="BU238" s="1" t="s">
         <v>118</v>
@@ -50986,7 +50923,7 @@
         <v>681</v>
       </c>
       <c r="CE238" s="1" t="s">
-        <v>2606</v>
+        <v>2605</v>
       </c>
     </row>
     <row r="239" spans="1:83" x14ac:dyDescent="0.25">
@@ -51021,19 +50958,19 @@
         <v>93</v>
       </c>
       <c r="K239" s="1" t="s">
+        <v>2606</v>
+      </c>
+      <c r="L239" s="1" t="s">
         <v>2607</v>
       </c>
-      <c r="L239" s="1" t="s">
+      <c r="N239" s="1" t="s">
         <v>2608</v>
       </c>
-      <c r="N239" s="1" t="s">
+      <c r="O239" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P239" s="1" t="s">
         <v>2609</v>
-      </c>
-      <c r="O239" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="P239" s="1" t="s">
-        <v>2610</v>
       </c>
       <c r="Q239" s="3">
         <v>26205</v>
@@ -51120,7 +51057,7 @@
         <v>111</v>
       </c>
       <c r="BH239" s="1" t="s">
-        <v>2611</v>
+        <v>2610</v>
       </c>
       <c r="BM239" s="1" t="s">
         <v>114</v>
@@ -51129,7 +51066,7 @@
         <v>102</v>
       </c>
       <c r="BT239" s="1" t="s">
-        <v>2612</v>
+        <v>2611</v>
       </c>
       <c r="BU239" s="1" t="s">
         <v>118</v>
@@ -51147,13 +51084,13 @@
         <v>107</v>
       </c>
       <c r="CC239" s="1" t="s">
+        <v>2612</v>
+      </c>
+      <c r="CD239" s="1" t="s">
         <v>2613</v>
       </c>
-      <c r="CD239" s="1" t="s">
+      <c r="CE239" s="1" t="s">
         <v>2614</v>
-      </c>
-      <c r="CE239" s="1" t="s">
-        <v>2615</v>
       </c>
     </row>
     <row r="240" spans="1:83" x14ac:dyDescent="0.25">
@@ -51188,19 +51125,19 @@
         <v>93</v>
       </c>
       <c r="K240" s="1" t="s">
+        <v>2615</v>
+      </c>
+      <c r="L240" s="1" t="s">
         <v>2616</v>
       </c>
-      <c r="L240" s="1" t="s">
+      <c r="N240" s="1" t="s">
         <v>2617</v>
       </c>
-      <c r="N240" s="1" t="s">
+      <c r="O240" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P240" s="1" t="s">
         <v>2618</v>
-      </c>
-      <c r="O240" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="P240" s="1" t="s">
-        <v>2619</v>
       </c>
       <c r="Q240" s="3">
         <v>31662</v>
@@ -51287,7 +51224,7 @@
         <v>111</v>
       </c>
       <c r="BH240" s="1" t="s">
-        <v>2620</v>
+        <v>2619</v>
       </c>
       <c r="BI240" s="1" t="s">
         <v>617</v>
@@ -51299,7 +51236,7 @@
         <v>102</v>
       </c>
       <c r="BT240" s="1" t="s">
-        <v>2621</v>
+        <v>2620</v>
       </c>
       <c r="BU240" s="1" t="s">
         <v>118</v>
@@ -51317,13 +51254,13 @@
         <v>107</v>
       </c>
       <c r="CC240" s="1" t="s">
+        <v>2621</v>
+      </c>
+      <c r="CD240" s="1" t="s">
         <v>2622</v>
       </c>
-      <c r="CD240" s="1" t="s">
+      <c r="CE240" s="1" t="s">
         <v>2623</v>
-      </c>
-      <c r="CE240" s="1" t="s">
-        <v>2624</v>
       </c>
     </row>
     <row r="241" spans="1:83" x14ac:dyDescent="0.25">
@@ -51358,19 +51295,19 @@
         <v>93</v>
       </c>
       <c r="K241" s="1" t="s">
+        <v>2624</v>
+      </c>
+      <c r="L241" s="1" t="s">
         <v>2625</v>
       </c>
-      <c r="L241" s="1" t="s">
+      <c r="N241" s="1" t="s">
         <v>2626</v>
       </c>
-      <c r="N241" s="1" t="s">
+      <c r="O241" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P241" s="1" t="s">
         <v>2627</v>
-      </c>
-      <c r="O241" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="P241" s="1" t="s">
-        <v>2628</v>
       </c>
       <c r="Q241" s="3">
         <v>29117</v>
@@ -51457,10 +51394,10 @@
         <v>111</v>
       </c>
       <c r="BH241" s="1" t="s">
+        <v>2628</v>
+      </c>
+      <c r="BI241" s="1" t="s">
         <v>2629</v>
-      </c>
-      <c r="BI241" s="1" t="s">
-        <v>2630</v>
       </c>
       <c r="BM241" s="1" t="s">
         <v>114</v>
@@ -51472,13 +51409,13 @@
         <v>99</v>
       </c>
       <c r="BR241" s="1" t="s">
-        <v>2631</v>
+        <v>2630</v>
       </c>
       <c r="BS241" s="3">
         <v>37334</v>
       </c>
       <c r="BT241" s="1" t="s">
-        <v>2632</v>
+        <v>2631</v>
       </c>
       <c r="BU241" s="1" t="s">
         <v>118</v>
@@ -51499,10 +51436,10 @@
         <v>544</v>
       </c>
       <c r="CD241" s="1" t="s">
+        <v>2632</v>
+      </c>
+      <c r="CE241" s="1" t="s">
         <v>2633</v>
-      </c>
-      <c r="CE241" s="1" t="s">
-        <v>2634</v>
       </c>
     </row>
     <row r="242" spans="1:83" x14ac:dyDescent="0.25">
@@ -51537,19 +51474,19 @@
         <v>93</v>
       </c>
       <c r="K242" s="1" t="s">
+        <v>2634</v>
+      </c>
+      <c r="L242" s="1" t="s">
         <v>2635</v>
       </c>
-      <c r="L242" s="1" t="s">
+      <c r="N242" s="1" t="s">
         <v>2636</v>
       </c>
-      <c r="N242" s="1" t="s">
+      <c r="O242" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P242" s="1" t="s">
         <v>2637</v>
-      </c>
-      <c r="O242" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="P242" s="1" t="s">
-        <v>2638</v>
       </c>
       <c r="Q242" s="3">
         <v>30007</v>
@@ -51636,10 +51573,10 @@
         <v>111</v>
       </c>
       <c r="BH242" s="1" t="s">
+        <v>2638</v>
+      </c>
+      <c r="BI242" s="1" t="s">
         <v>2639</v>
-      </c>
-      <c r="BI242" s="1" t="s">
-        <v>2640</v>
       </c>
       <c r="BM242" s="1" t="s">
         <v>114</v>
@@ -51651,13 +51588,13 @@
         <v>99</v>
       </c>
       <c r="BR242" s="1" t="s">
-        <v>2641</v>
+        <v>2640</v>
       </c>
       <c r="BS242" s="3">
         <v>37904</v>
       </c>
       <c r="BT242" s="1" t="s">
-        <v>2642</v>
+        <v>2641</v>
       </c>
       <c r="BU242" s="1" t="s">
         <v>118</v>
@@ -51678,10 +51615,10 @@
         <v>950</v>
       </c>
       <c r="CD242" s="1" t="s">
+        <v>2642</v>
+      </c>
+      <c r="CE242" s="1" t="s">
         <v>2643</v>
-      </c>
-      <c r="CE242" s="1" t="s">
-        <v>2644</v>
       </c>
     </row>
     <row r="243" spans="1:83" x14ac:dyDescent="0.25">
@@ -51716,19 +51653,19 @@
         <v>93</v>
       </c>
       <c r="K243" s="1" t="s">
+        <v>2644</v>
+      </c>
+      <c r="L243" s="1" t="s">
         <v>2645</v>
       </c>
-      <c r="L243" s="1" t="s">
+      <c r="N243" s="1" t="s">
         <v>2646</v>
       </c>
-      <c r="N243" s="1" t="s">
+      <c r="O243" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P243" s="1" t="s">
         <v>2647</v>
-      </c>
-      <c r="O243" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="P243" s="1" t="s">
-        <v>2648</v>
       </c>
       <c r="Q243" s="3">
         <v>26221</v>
@@ -51812,7 +51749,7 @@
         <v>111</v>
       </c>
       <c r="BH243" s="1" t="s">
-        <v>2649</v>
+        <v>2648</v>
       </c>
       <c r="BI243" s="1" t="s">
         <v>2262</v>
@@ -51827,13 +51764,13 @@
         <v>115</v>
       </c>
       <c r="BR243" s="1" t="s">
-        <v>2650</v>
+        <v>2649</v>
       </c>
       <c r="BS243" s="3">
         <v>36111</v>
       </c>
       <c r="BT243" s="1" t="s">
-        <v>2651</v>
+        <v>2650</v>
       </c>
       <c r="BU243" s="1" t="s">
         <v>118</v>
@@ -51851,13 +51788,13 @@
         <v>107</v>
       </c>
       <c r="CC243" s="1" t="s">
-        <v>2652</v>
+        <v>2651</v>
       </c>
       <c r="CD243" s="1" t="s">
         <v>1123</v>
       </c>
       <c r="CE243" s="1" t="s">
-        <v>2653</v>
+        <v>2652</v>
       </c>
     </row>
     <row r="244" spans="1:83" x14ac:dyDescent="0.25">
@@ -51892,19 +51829,19 @@
         <v>93</v>
       </c>
       <c r="K244" s="1" t="s">
+        <v>2653</v>
+      </c>
+      <c r="L244" s="1" t="s">
         <v>2654</v>
       </c>
-      <c r="L244" s="1" t="s">
+      <c r="N244" s="1" t="s">
         <v>2655</v>
       </c>
-      <c r="N244" s="1" t="s">
+      <c r="O244" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P244" s="1" t="s">
         <v>2656</v>
-      </c>
-      <c r="O244" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="P244" s="1" t="s">
-        <v>2657</v>
       </c>
       <c r="Q244" s="3">
         <v>27571</v>
@@ -51991,7 +51928,7 @@
         <v>111</v>
       </c>
       <c r="BH244" s="1" t="s">
-        <v>2658</v>
+        <v>2657</v>
       </c>
       <c r="BI244" s="1" t="s">
         <v>1833</v>
@@ -52006,13 +51943,13 @@
         <v>115</v>
       </c>
       <c r="BR244" s="1" t="s">
-        <v>2659</v>
+        <v>2658</v>
       </c>
       <c r="BS244" s="3">
         <v>37785</v>
       </c>
       <c r="BT244" s="1" t="s">
-        <v>2660</v>
+        <v>2659</v>
       </c>
       <c r="BU244" s="1" t="s">
         <v>118</v>
@@ -52030,13 +51967,13 @@
         <v>107</v>
       </c>
       <c r="CC244" s="1" t="s">
+        <v>2660</v>
+      </c>
+      <c r="CD244" s="1" t="s">
         <v>2661</v>
       </c>
-      <c r="CD244" s="1" t="s">
+      <c r="CE244" s="1" t="s">
         <v>2662</v>
-      </c>
-      <c r="CE244" s="1" t="s">
-        <v>2663</v>
       </c>
     </row>
     <row r="245" spans="1:83" x14ac:dyDescent="0.25">
@@ -52071,19 +52008,19 @@
         <v>93</v>
       </c>
       <c r="K245" s="1" t="s">
+        <v>2663</v>
+      </c>
+      <c r="L245" s="1" t="s">
         <v>2664</v>
       </c>
-      <c r="L245" s="1" t="s">
+      <c r="N245" s="1" t="s">
         <v>2665</v>
       </c>
-      <c r="N245" s="1" t="s">
+      <c r="O245" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P245" s="1" t="s">
         <v>2666</v>
-      </c>
-      <c r="O245" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="P245" s="1" t="s">
-        <v>2667</v>
       </c>
       <c r="Q245" s="3">
         <v>30041</v>
@@ -52170,7 +52107,7 @@
         <v>111</v>
       </c>
       <c r="BH245" s="1" t="s">
-        <v>2668</v>
+        <v>2667</v>
       </c>
       <c r="BM245" s="1" t="s">
         <v>114</v>
@@ -52179,7 +52116,7 @@
         <v>102</v>
       </c>
       <c r="BT245" s="1" t="s">
-        <v>2669</v>
+        <v>2668</v>
       </c>
       <c r="BU245" s="1" t="s">
         <v>118</v>
@@ -52200,10 +52137,10 @@
         <v>1240</v>
       </c>
       <c r="CD245" s="1" t="s">
+        <v>2669</v>
+      </c>
+      <c r="CE245" s="1" t="s">
         <v>2670</v>
-      </c>
-      <c r="CE245" s="1" t="s">
-        <v>2671</v>
       </c>
     </row>
     <row r="246" spans="1:83" x14ac:dyDescent="0.25">
@@ -52238,19 +52175,19 @@
         <v>93</v>
       </c>
       <c r="K246" s="1" t="s">
+        <v>2671</v>
+      </c>
+      <c r="L246" s="1" t="s">
         <v>2672</v>
       </c>
-      <c r="L246" s="1" t="s">
+      <c r="N246" s="1" t="s">
         <v>2673</v>
       </c>
-      <c r="N246" s="1" t="s">
+      <c r="O246" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P246" s="1" t="s">
         <v>2674</v>
-      </c>
-      <c r="O246" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="P246" s="1" t="s">
-        <v>2675</v>
       </c>
       <c r="Q246" s="3">
         <v>30993</v>
@@ -52322,7 +52259,7 @@
         <v>107</v>
       </c>
       <c r="AZ246" s="1" t="s">
-        <v>2676</v>
+        <v>2675</v>
       </c>
       <c r="BB246" s="1">
         <v>3</v>
@@ -52340,7 +52277,7 @@
         <v>111</v>
       </c>
       <c r="BH246" s="1" t="s">
-        <v>2677</v>
+        <v>2676</v>
       </c>
       <c r="BM246" s="1" t="s">
         <v>114</v>
@@ -52349,7 +52286,7 @@
         <v>102</v>
       </c>
       <c r="BT246" s="1" t="s">
-        <v>2678</v>
+        <v>2677</v>
       </c>
       <c r="BU246" s="1" t="s">
         <v>118</v>
@@ -52367,13 +52304,13 @@
         <v>107</v>
       </c>
       <c r="CC246" s="1" t="s">
+        <v>2678</v>
+      </c>
+      <c r="CD246" s="1" t="s">
         <v>2679</v>
       </c>
-      <c r="CD246" s="1" t="s">
+      <c r="CE246" s="1" t="s">
         <v>2680</v>
-      </c>
-      <c r="CE246" s="1" t="s">
-        <v>2681</v>
       </c>
     </row>
     <row r="247" spans="1:83" x14ac:dyDescent="0.25">
@@ -52408,19 +52345,19 @@
         <v>93</v>
       </c>
       <c r="K247" s="1" t="s">
+        <v>2681</v>
+      </c>
+      <c r="L247" s="1" t="s">
         <v>2682</v>
       </c>
-      <c r="L247" s="1" t="s">
+      <c r="N247" s="1" t="s">
         <v>2683</v>
       </c>
-      <c r="N247" s="1" t="s">
+      <c r="O247" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P247" s="1" t="s">
         <v>2684</v>
-      </c>
-      <c r="O247" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="P247" s="1" t="s">
-        <v>2685</v>
       </c>
       <c r="Q247" s="3">
         <v>30065</v>
@@ -52492,7 +52429,7 @@
         <v>107</v>
       </c>
       <c r="AZ247" s="1" t="s">
-        <v>2686</v>
+        <v>2685</v>
       </c>
       <c r="BB247" s="1">
         <v>3</v>
@@ -52510,7 +52447,7 @@
         <v>111</v>
       </c>
       <c r="BH247" s="1" t="s">
-        <v>2687</v>
+        <v>2686</v>
       </c>
       <c r="BI247" s="1" t="s">
         <v>842</v>
@@ -52522,7 +52459,7 @@
         <v>102</v>
       </c>
       <c r="BT247" s="1" t="s">
-        <v>2688</v>
+        <v>2687</v>
       </c>
       <c r="BU247" s="1" t="s">
         <v>118</v>
@@ -52540,13 +52477,13 @@
         <v>107</v>
       </c>
       <c r="CC247" s="1" t="s">
-        <v>2358</v>
+        <v>2357</v>
       </c>
       <c r="CD247" s="1" t="s">
         <v>1101</v>
       </c>
       <c r="CE247" s="1" t="s">
-        <v>2689</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="248" spans="1:83" x14ac:dyDescent="0.25">
@@ -52581,19 +52518,19 @@
         <v>93</v>
       </c>
       <c r="K248" s="1" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L248" s="1" t="s">
         <v>2690</v>
       </c>
-      <c r="L248" s="1" t="s">
+      <c r="N248" s="1" t="s">
         <v>2691</v>
       </c>
-      <c r="N248" s="1" t="s">
+      <c r="O248" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P248" s="1" t="s">
         <v>2692</v>
-      </c>
-      <c r="O248" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="P248" s="1" t="s">
-        <v>2693</v>
       </c>
       <c r="Q248" s="3">
         <v>30033</v>
@@ -52665,7 +52602,7 @@
         <v>107</v>
       </c>
       <c r="AZ248" s="1" t="s">
-        <v>2694</v>
+        <v>2693</v>
       </c>
       <c r="BB248" s="1">
         <v>3</v>
@@ -52683,7 +52620,7 @@
         <v>111</v>
       </c>
       <c r="BH248" s="1" t="s">
-        <v>2695</v>
+        <v>2694</v>
       </c>
       <c r="BM248" s="1" t="s">
         <v>114</v>
@@ -52692,7 +52629,7 @@
         <v>102</v>
       </c>
       <c r="BT248" s="1" t="s">
-        <v>2696</v>
+        <v>2695</v>
       </c>
       <c r="BU248" s="1" t="s">
         <v>118</v>
@@ -52713,10 +52650,10 @@
         <v>1101</v>
       </c>
       <c r="CD248" s="1" t="s">
+        <v>2696</v>
+      </c>
+      <c r="CE248" s="1" t="s">
         <v>2697</v>
-      </c>
-      <c r="CE248" s="1" t="s">
-        <v>2698</v>
       </c>
     </row>
     <row r="249" spans="1:83" x14ac:dyDescent="0.25">
@@ -52751,19 +52688,19 @@
         <v>93</v>
       </c>
       <c r="K249" s="1" t="s">
+        <v>2698</v>
+      </c>
+      <c r="L249" s="1" t="s">
         <v>2699</v>
       </c>
-      <c r="L249" s="1" t="s">
+      <c r="N249" s="1" t="s">
         <v>2700</v>
       </c>
-      <c r="N249" s="1" t="s">
+      <c r="O249" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P249" s="1" t="s">
         <v>2701</v>
-      </c>
-      <c r="O249" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="P249" s="1" t="s">
-        <v>2702</v>
       </c>
       <c r="Q249" s="3">
         <v>29411</v>
@@ -52832,7 +52769,7 @@
         <v>107</v>
       </c>
       <c r="AZ249" s="1" t="s">
-        <v>2703</v>
+        <v>2702</v>
       </c>
       <c r="BB249" s="1">
         <v>3</v>
@@ -52853,10 +52790,10 @@
         <v>111</v>
       </c>
       <c r="BH249" s="1" t="s">
+        <v>2703</v>
+      </c>
+      <c r="BI249" s="1" t="s">
         <v>2704</v>
-      </c>
-      <c r="BI249" s="1" t="s">
-        <v>2705</v>
       </c>
       <c r="BM249" s="1" t="s">
         <v>114</v>
@@ -52868,13 +52805,13 @@
         <v>218</v>
       </c>
       <c r="BR249" s="1" t="s">
-        <v>2706</v>
+        <v>2705</v>
       </c>
       <c r="BS249" s="3">
         <v>37513</v>
       </c>
       <c r="BT249" s="1" t="s">
-        <v>2707</v>
+        <v>2706</v>
       </c>
       <c r="BU249" s="1" t="s">
         <v>118</v>
@@ -52892,13 +52829,13 @@
         <v>107</v>
       </c>
       <c r="CC249" s="1" t="s">
-        <v>2708</v>
+        <v>2707</v>
       </c>
       <c r="CD249" s="1" t="s">
         <v>122</v>
       </c>
       <c r="CE249" s="1" t="s">
-        <v>2709</v>
+        <v>2708</v>
       </c>
     </row>
     <row r="250" spans="1:83" x14ac:dyDescent="0.25">
@@ -52933,19 +52870,19 @@
         <v>93</v>
       </c>
       <c r="K250" s="1" t="s">
+        <v>2709</v>
+      </c>
+      <c r="L250" s="1" t="s">
         <v>2710</v>
       </c>
-      <c r="L250" s="1" t="s">
+      <c r="N250" s="1" t="s">
         <v>2711</v>
       </c>
-      <c r="N250" s="1" t="s">
+      <c r="O250" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P250" s="1" t="s">
         <v>2712</v>
-      </c>
-      <c r="O250" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="P250" s="1" t="s">
-        <v>2713</v>
       </c>
       <c r="Q250" s="3">
         <v>32173</v>
@@ -53029,10 +52966,10 @@
         <v>111</v>
       </c>
       <c r="BH250" s="1" t="s">
+        <v>2713</v>
+      </c>
+      <c r="BI250" s="1" t="s">
         <v>2714</v>
-      </c>
-      <c r="BI250" s="1" t="s">
-        <v>2715</v>
       </c>
       <c r="BM250" s="1" t="s">
         <v>114</v>
@@ -53044,13 +52981,13 @@
         <v>99</v>
       </c>
       <c r="BR250" s="1" t="s">
-        <v>2716</v>
+        <v>2715</v>
       </c>
       <c r="BS250" s="3">
         <v>41024</v>
       </c>
       <c r="BT250" s="1" t="s">
-        <v>2717</v>
+        <v>2716</v>
       </c>
       <c r="BU250" s="1" t="s">
         <v>118</v>
@@ -53068,13 +53005,13 @@
         <v>107</v>
       </c>
       <c r="CC250" s="1" t="s">
+        <v>2717</v>
+      </c>
+      <c r="CD250" s="1" t="s">
         <v>2718</v>
       </c>
-      <c r="CD250" s="1" t="s">
+      <c r="CE250" s="1" t="s">
         <v>2719</v>
-      </c>
-      <c r="CE250" s="1" t="s">
-        <v>2720</v>
       </c>
     </row>
     <row r="251" spans="1:83" x14ac:dyDescent="0.25">
@@ -53109,19 +53046,19 @@
         <v>93</v>
       </c>
       <c r="K251" s="1" t="s">
+        <v>2720</v>
+      </c>
+      <c r="L251" s="1" t="s">
         <v>2721</v>
       </c>
-      <c r="L251" s="1" t="s">
+      <c r="N251" s="1" t="s">
         <v>2722</v>
       </c>
-      <c r="N251" s="1" t="s">
+      <c r="O251" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P251" s="1" t="s">
         <v>2723</v>
-      </c>
-      <c r="O251" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="P251" s="1" t="s">
-        <v>2724</v>
       </c>
       <c r="Q251" s="3">
         <v>18645</v>
@@ -53148,7 +53085,7 @@
         <v>103</v>
       </c>
       <c r="AG251" s="1" t="s">
-        <v>2555</v>
+        <v>2554</v>
       </c>
       <c r="AH251" s="1" t="s">
         <v>1865</v>
@@ -53172,28 +53109,28 @@
         <v>97</v>
       </c>
       <c r="AQ251" s="1" t="s">
+        <v>2724</v>
+      </c>
+      <c r="AR251" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS251" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT251" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU251" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV251" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY251" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AZ251" s="1" t="s">
         <v>2725</v>
-      </c>
-      <c r="AR251" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS251" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT251" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU251" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV251" s="1">
-        <v>0</v>
-      </c>
-      <c r="AY251" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="AZ251" s="1" t="s">
-        <v>2726</v>
       </c>
       <c r="BB251" s="1">
         <v>3</v>
@@ -53211,7 +53148,7 @@
         <v>111</v>
       </c>
       <c r="BH251" s="1" t="s">
-        <v>2727</v>
+        <v>2726</v>
       </c>
       <c r="BI251" s="1" t="s">
         <v>1109</v>
@@ -53226,13 +53163,13 @@
         <v>115</v>
       </c>
       <c r="BR251" s="1" t="s">
-        <v>2728</v>
+        <v>2727</v>
       </c>
       <c r="BS251" s="3">
         <v>34808</v>
       </c>
       <c r="BT251" s="1" t="s">
-        <v>2729</v>
+        <v>2728</v>
       </c>
       <c r="BU251" s="1" t="s">
         <v>118</v>
@@ -53250,13 +53187,13 @@
         <v>107</v>
       </c>
       <c r="CC251" s="1" t="s">
+        <v>2729</v>
+      </c>
+      <c r="CD251" s="1" t="s">
         <v>2730</v>
       </c>
-      <c r="CD251" s="1" t="s">
+      <c r="CE251" s="1" t="s">
         <v>2731</v>
-      </c>
-      <c r="CE251" s="1" t="s">
-        <v>2732</v>
       </c>
     </row>
     <row r="252" spans="1:83" x14ac:dyDescent="0.25">
@@ -53291,19 +53228,19 @@
         <v>93</v>
       </c>
       <c r="K252" s="1" t="s">
+        <v>2732</v>
+      </c>
+      <c r="L252" s="1" t="s">
         <v>2733</v>
       </c>
-      <c r="L252" s="1" t="s">
+      <c r="N252" s="1" t="s">
         <v>2734</v>
       </c>
-      <c r="N252" s="1" t="s">
+      <c r="O252" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P252" s="1" t="s">
         <v>2735</v>
-      </c>
-      <c r="O252" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="P252" s="1" t="s">
-        <v>2736</v>
       </c>
       <c r="Q252" s="3">
         <v>30408</v>
@@ -53372,7 +53309,7 @@
         <v>107</v>
       </c>
       <c r="AZ252" s="1" t="s">
-        <v>2737</v>
+        <v>2736</v>
       </c>
       <c r="BB252" s="1">
         <v>3</v>
@@ -53390,10 +53327,10 @@
         <v>111</v>
       </c>
       <c r="BH252" s="1" t="s">
+        <v>2737</v>
+      </c>
+      <c r="BI252" s="1" t="s">
         <v>2738</v>
-      </c>
-      <c r="BI252" s="1" t="s">
-        <v>2739</v>
       </c>
       <c r="BM252" s="1" t="s">
         <v>114</v>
@@ -53405,13 +53342,13 @@
         <v>99</v>
       </c>
       <c r="BR252" s="1" t="s">
-        <v>2740</v>
+        <v>2739</v>
       </c>
       <c r="BS252" s="3">
         <v>37336</v>
       </c>
       <c r="BT252" s="1" t="s">
-        <v>2741</v>
+        <v>2740</v>
       </c>
       <c r="BU252" s="1" t="s">
         <v>118</v>
@@ -53429,13 +53366,13 @@
         <v>107</v>
       </c>
       <c r="CC252" s="1" t="s">
+        <v>2741</v>
+      </c>
+      <c r="CD252" s="1" t="s">
         <v>2742</v>
       </c>
-      <c r="CD252" s="1" t="s">
+      <c r="CE252" s="1" t="s">
         <v>2743</v>
-      </c>
-      <c r="CE252" s="1" t="s">
-        <v>2744</v>
       </c>
     </row>
     <row r="253" spans="1:83" x14ac:dyDescent="0.25">
@@ -53470,19 +53407,19 @@
         <v>93</v>
       </c>
       <c r="K253" s="1" t="s">
+        <v>2744</v>
+      </c>
+      <c r="L253" s="1" t="s">
         <v>2745</v>
       </c>
-      <c r="L253" s="1" t="s">
+      <c r="N253" s="1" t="s">
         <v>2746</v>
       </c>
-      <c r="N253" s="1" t="s">
+      <c r="O253" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P253" s="1" t="s">
         <v>2747</v>
-      </c>
-      <c r="O253" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="P253" s="1" t="s">
-        <v>2748</v>
       </c>
       <c r="Q253" s="3">
         <v>28132</v>
@@ -53554,7 +53491,7 @@
         <v>107</v>
       </c>
       <c r="AZ253" s="1" t="s">
-        <v>2749</v>
+        <v>2748</v>
       </c>
       <c r="BB253" s="1">
         <v>3</v>
@@ -53572,10 +53509,10 @@
         <v>111</v>
       </c>
       <c r="BH253" s="1" t="s">
-        <v>2750</v>
+        <v>2749</v>
       </c>
       <c r="BI253" s="1" t="s">
-        <v>2385</v>
+        <v>2384</v>
       </c>
       <c r="BM253" s="1" t="s">
         <v>114</v>
@@ -53584,7 +53521,7 @@
         <v>102</v>
       </c>
       <c r="BT253" s="1" t="s">
-        <v>2751</v>
+        <v>2750</v>
       </c>
       <c r="BU253" s="1" t="s">
         <v>118</v>
@@ -53602,13 +53539,13 @@
         <v>107</v>
       </c>
       <c r="CC253" s="1" t="s">
+        <v>2751</v>
+      </c>
+      <c r="CD253" s="1" t="s">
         <v>2752</v>
       </c>
-      <c r="CD253" s="1" t="s">
+      <c r="CE253" s="1" t="s">
         <v>2753</v>
-      </c>
-      <c r="CE253" s="1" t="s">
-        <v>2754</v>
       </c>
     </row>
     <row r="254" spans="1:83" x14ac:dyDescent="0.25">
@@ -53643,19 +53580,19 @@
         <v>93</v>
       </c>
       <c r="K254" s="1" t="s">
+        <v>2754</v>
+      </c>
+      <c r="L254" s="1" t="s">
         <v>2755</v>
       </c>
-      <c r="L254" s="1" t="s">
+      <c r="N254" s="1" t="s">
         <v>2756</v>
       </c>
-      <c r="N254" s="1" t="s">
+      <c r="O254" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P254" s="1" t="s">
         <v>2757</v>
-      </c>
-      <c r="O254" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="P254" s="1" t="s">
-        <v>2758</v>
       </c>
       <c r="Q254" s="3">
         <v>31743</v>
@@ -53742,7 +53679,7 @@
         <v>111</v>
       </c>
       <c r="BH254" s="1" t="s">
-        <v>2759</v>
+        <v>2758</v>
       </c>
       <c r="BM254" s="1" t="s">
         <v>114</v>
@@ -53751,7 +53688,7 @@
         <v>102</v>
       </c>
       <c r="BT254" s="1" t="s">
-        <v>2760</v>
+        <v>2759</v>
       </c>
       <c r="BU254" s="1" t="s">
         <v>118</v>
@@ -53769,13 +53706,13 @@
         <v>107</v>
       </c>
       <c r="CC254" s="1" t="s">
+        <v>2760</v>
+      </c>
+      <c r="CD254" s="1" t="s">
         <v>2761</v>
       </c>
-      <c r="CD254" s="1" t="s">
+      <c r="CE254" s="1" t="s">
         <v>2762</v>
-      </c>
-      <c r="CE254" s="1" t="s">
-        <v>2763</v>
       </c>
     </row>
     <row r="255" spans="1:83" x14ac:dyDescent="0.25">
@@ -53810,19 +53747,19 @@
         <v>162</v>
       </c>
       <c r="K255" s="1" t="s">
+        <v>2763</v>
+      </c>
+      <c r="L255" s="1" t="s">
         <v>2764</v>
       </c>
-      <c r="L255" s="1" t="s">
+      <c r="N255" s="1" t="s">
         <v>2765</v>
       </c>
-      <c r="N255" s="1" t="s">
+      <c r="O255" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P255" s="1" t="s">
         <v>2766</v>
-      </c>
-      <c r="O255" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="P255" s="1" t="s">
-        <v>2767</v>
       </c>
       <c r="R255" s="1" t="s">
         <v>131</v>
@@ -53909,13 +53846,13 @@
         <v>111</v>
       </c>
       <c r="BH255" s="1" t="s">
-        <v>2768</v>
+        <v>2767</v>
       </c>
       <c r="BM255" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BT255" s="1" t="s">
-        <v>2769</v>
+        <v>2768</v>
       </c>
       <c r="BU255" s="1" t="s">
         <v>118</v>
@@ -53933,13 +53870,13 @@
         <v>107</v>
       </c>
       <c r="CC255" s="1" t="s">
-        <v>2770</v>
+        <v>2769</v>
       </c>
       <c r="CD255" s="1" t="s">
         <v>2303</v>
       </c>
       <c r="CE255" s="1" t="s">
-        <v>2771</v>
+        <v>2770</v>
       </c>
     </row>
     <row r="256" spans="1:83" x14ac:dyDescent="0.25">
@@ -53968,7 +53905,7 @@
         <v>91</v>
       </c>
       <c r="I256" s="1" t="s">
-        <v>2772</v>
+        <v>2771</v>
       </c>
       <c r="J256" s="1" t="s">
         <v>93</v>
@@ -53977,10 +53914,10 @@
         <v>263</v>
       </c>
       <c r="L256" s="1" t="s">
+        <v>2772</v>
+      </c>
+      <c r="M256" s="1" t="s">
         <v>2773</v>
-      </c>
-      <c r="M256" s="1" t="s">
-        <v>2774</v>
       </c>
       <c r="N256" s="1" t="s">
         <v>265</v>
@@ -54010,7 +53947,7 @@
         <v>42582</v>
       </c>
       <c r="AD256" s="1" t="s">
-        <v>2775</v>
+        <v>2774</v>
       </c>
       <c r="AF256" s="1" t="s">
         <v>103</v>
@@ -54061,10 +53998,10 @@
         <v>267</v>
       </c>
       <c r="BH256" s="1" t="s">
+        <v>2775</v>
+      </c>
+      <c r="BI256" s="1" t="s">
         <v>2776</v>
-      </c>
-      <c r="BI256" s="1" t="s">
-        <v>2777</v>
       </c>
       <c r="BM256" s="1" t="s">
         <v>114</v>
@@ -54120,7 +54057,7 @@
         <v>124</v>
       </c>
       <c r="E257" s="1" t="s">
-        <v>2778</v>
+        <v>2777</v>
       </c>
       <c r="F257" s="1" t="s">
         <v>89</v>
@@ -54138,16 +54075,16 @@
         <v>93</v>
       </c>
       <c r="K257" s="1" t="s">
+        <v>2778</v>
+      </c>
+      <c r="L257" s="1" t="s">
         <v>2779</v>
       </c>
-      <c r="L257" s="1" t="s">
+      <c r="M257" s="1" t="s">
+        <v>2773</v>
+      </c>
+      <c r="N257" s="1" t="s">
         <v>2780</v>
-      </c>
-      <c r="M257" s="1" t="s">
-        <v>2774</v>
-      </c>
-      <c r="N257" s="1" t="s">
-        <v>2781</v>
       </c>
       <c r="Q257" s="3">
         <v>17060</v>
@@ -54180,7 +54117,7 @@
         <v>42628</v>
       </c>
       <c r="AD257" s="1" t="s">
-        <v>2782</v>
+        <v>2781</v>
       </c>
       <c r="AF257" s="1" t="s">
         <v>103</v>
@@ -54231,16 +54168,16 @@
         <v>107</v>
       </c>
       <c r="AZ257" s="1" t="s">
-        <v>2783</v>
+        <v>2782</v>
       </c>
       <c r="BD257" s="1" t="s">
         <v>231</v>
       </c>
       <c r="BH257" s="1" t="s">
+        <v>2783</v>
+      </c>
+      <c r="BI257" s="1" t="s">
         <v>2784</v>
-      </c>
-      <c r="BI257" s="1" t="s">
-        <v>2785</v>
       </c>
       <c r="BM257" s="1" t="s">
         <v>114</v>
@@ -54249,7 +54186,7 @@
         <v>102</v>
       </c>
       <c r="BT257" s="1" t="s">
-        <v>2786</v>
+        <v>2785</v>
       </c>
       <c r="BU257" s="1" t="s">
         <v>118</v>
@@ -54273,7 +54210,7 @@
         <v>122</v>
       </c>
       <c r="CE257" s="1" t="s">
-        <v>2787</v>
+        <v>2786</v>
       </c>
     </row>
     <row r="258" spans="1:83" x14ac:dyDescent="0.25">
@@ -54290,7 +54227,7 @@
         <v>124</v>
       </c>
       <c r="E258" s="1" t="s">
-        <v>2788</v>
+        <v>2787</v>
       </c>
       <c r="F258" s="1" t="s">
         <v>107</v>
@@ -54302,22 +54239,22 @@
         <v>91</v>
       </c>
       <c r="I258" s="1" t="s">
-        <v>2789</v>
+        <v>2788</v>
       </c>
       <c r="J258" s="1" t="s">
         <v>93</v>
       </c>
       <c r="K258" s="1" t="s">
+        <v>2789</v>
+      </c>
+      <c r="L258" s="1" t="s">
         <v>2790</v>
       </c>
-      <c r="L258" s="1" t="s">
+      <c r="M258" s="1" t="s">
+        <v>2773</v>
+      </c>
+      <c r="N258" s="1" t="s">
         <v>2791</v>
-      </c>
-      <c r="M258" s="1" t="s">
-        <v>2774</v>
-      </c>
-      <c r="N258" s="1" t="s">
-        <v>2792</v>
       </c>
       <c r="Q258" s="3">
         <v>26864</v>
@@ -54347,7 +54284,7 @@
         <v>42735</v>
       </c>
       <c r="AD258" s="1" t="s">
-        <v>2793</v>
+        <v>2792</v>
       </c>
       <c r="AF258" s="1" t="s">
         <v>103</v>
@@ -54398,7 +54335,7 @@
         <v>99</v>
       </c>
       <c r="BH258" s="1" t="s">
-        <v>2794</v>
+        <v>2793</v>
       </c>
       <c r="BM258" s="1" t="s">
         <v>114</v>
@@ -54410,13 +54347,13 @@
         <v>218</v>
       </c>
       <c r="BR258" s="1" t="s">
-        <v>2795</v>
+        <v>2794</v>
       </c>
       <c r="BS258" s="3">
         <v>102</v>
       </c>
       <c r="BT258" s="1" t="s">
-        <v>2796</v>
+        <v>2795</v>
       </c>
       <c r="BU258" s="1" t="s">
         <v>118</v>
@@ -54437,13 +54374,13 @@
         <v>107</v>
       </c>
       <c r="CC258" s="1" t="s">
+        <v>2796</v>
+      </c>
+      <c r="CD258" s="1" t="s">
         <v>2797</v>
       </c>
-      <c r="CD258" s="1" t="s">
+      <c r="CE258" s="1" t="s">
         <v>2798</v>
-      </c>
-      <c r="CE258" s="1" t="s">
-        <v>2799</v>
       </c>
     </row>
     <row r="259" spans="1:83" x14ac:dyDescent="0.25">
@@ -54472,22 +54409,22 @@
         <v>91</v>
       </c>
       <c r="I259" s="1" t="s">
-        <v>2772</v>
+        <v>2771</v>
       </c>
       <c r="J259" s="1" t="s">
         <v>93</v>
       </c>
       <c r="K259" s="1" t="s">
+        <v>2799</v>
+      </c>
+      <c r="L259" s="1" t="s">
         <v>2800</v>
       </c>
-      <c r="L259" s="1" t="s">
+      <c r="M259" s="1" t="s">
+        <v>2773</v>
+      </c>
+      <c r="N259" s="1" t="s">
         <v>2801</v>
-      </c>
-      <c r="M259" s="1" t="s">
-        <v>2774</v>
-      </c>
-      <c r="N259" s="1" t="s">
-        <v>2802</v>
       </c>
       <c r="Q259" s="3">
         <v>17041</v>
@@ -54514,7 +54451,7 @@
         <v>42735</v>
       </c>
       <c r="AD259" s="1" t="s">
-        <v>2782</v>
+        <v>2781</v>
       </c>
       <c r="AF259" s="1" t="s">
         <v>103</v>
@@ -54565,7 +54502,7 @@
         <v>107</v>
       </c>
       <c r="BH259" s="1" t="s">
-        <v>2803</v>
+        <v>2802</v>
       </c>
       <c r="BM259" s="1" t="s">
         <v>114</v>
@@ -54574,7 +54511,7 @@
         <v>102</v>
       </c>
       <c r="BT259" s="1" t="s">
-        <v>2804</v>
+        <v>2803</v>
       </c>
       <c r="BU259" s="1" t="s">
         <v>118</v>
@@ -54595,13 +54532,13 @@
         <v>107</v>
       </c>
       <c r="CC259" s="1" t="s">
+        <v>2804</v>
+      </c>
+      <c r="CD259" s="1" t="s">
         <v>2805</v>
       </c>
-      <c r="CD259" s="1" t="s">
+      <c r="CE259" s="1" t="s">
         <v>2806</v>
-      </c>
-      <c r="CE259" s="1" t="s">
-        <v>2807</v>
       </c>
     </row>
     <row r="260" spans="1:83" x14ac:dyDescent="0.25">
@@ -54636,16 +54573,16 @@
         <v>93</v>
       </c>
       <c r="K260" s="1" t="s">
+        <v>2807</v>
+      </c>
+      <c r="L260" s="1" t="s">
         <v>2808</v>
       </c>
-      <c r="L260" s="1" t="s">
+      <c r="M260" s="1" t="s">
+        <v>2773</v>
+      </c>
+      <c r="N260" s="1" t="s">
         <v>2809</v>
-      </c>
-      <c r="M260" s="1" t="s">
-        <v>2774</v>
-      </c>
-      <c r="N260" s="1" t="s">
-        <v>2810</v>
       </c>
       <c r="Q260" s="3">
         <v>25379</v>
@@ -54675,7 +54612,7 @@
         <v>39800</v>
       </c>
       <c r="AD260" s="1" t="s">
-        <v>2811</v>
+        <v>2810</v>
       </c>
       <c r="AF260" s="1" t="s">
         <v>240</v>
@@ -54726,7 +54663,7 @@
         <v>99</v>
       </c>
       <c r="BH260" s="1" t="s">
-        <v>2812</v>
+        <v>2811</v>
       </c>
       <c r="BM260" s="1" t="s">
         <v>114</v>
@@ -54738,13 +54675,13 @@
         <v>229</v>
       </c>
       <c r="BR260" s="1" t="s">
-        <v>2813</v>
+        <v>2812</v>
       </c>
       <c r="BS260" s="3">
         <v>35915</v>
       </c>
       <c r="BT260" s="1" t="s">
-        <v>2814</v>
+        <v>2813</v>
       </c>
       <c r="BU260" s="1" t="s">
         <v>118</v>
@@ -54759,7 +54696,7 @@
         <v>241</v>
       </c>
       <c r="BZ260" s="1" t="s">
-        <v>2815</v>
+        <v>2814</v>
       </c>
       <c r="CA260" s="1" t="s">
         <v>120</v>
@@ -54774,7 +54711,7 @@
         <v>465</v>
       </c>
       <c r="CE260" s="1" t="s">
-        <v>2816</v>
+        <v>2815</v>
       </c>
     </row>
     <row r="261" spans="1:83" x14ac:dyDescent="0.25">
@@ -54809,16 +54746,16 @@
         <v>93</v>
       </c>
       <c r="K261" s="1" t="s">
+        <v>2816</v>
+      </c>
+      <c r="L261" s="1" t="s">
         <v>2817</v>
       </c>
-      <c r="L261" s="1" t="s">
+      <c r="M261" s="1" t="s">
+        <v>2773</v>
+      </c>
+      <c r="N261" s="1" t="s">
         <v>2818</v>
-      </c>
-      <c r="M261" s="1" t="s">
-        <v>2774</v>
-      </c>
-      <c r="N261" s="1" t="s">
-        <v>2819</v>
       </c>
       <c r="Q261" s="3">
         <v>23750</v>
@@ -54847,12 +54784,7 @@
       <c r="AA261" s="1">
         <v>0</v>
       </c>
-      <c r="AC261" s="3">
-        <v>43008</v>
-      </c>
-      <c r="AD261" s="1" t="s">
-        <v>2820</v>
-      </c>
+      <c r="AC261" s="3"/>
       <c r="AF261" s="1" t="s">
         <v>103</v>
       </c>
@@ -54902,13 +54834,13 @@
         <v>107</v>
       </c>
       <c r="AZ261" s="1" t="s">
-        <v>2821</v>
+        <v>2819</v>
       </c>
       <c r="BD261" s="1" t="s">
         <v>1210</v>
       </c>
       <c r="BH261" s="1" t="s">
-        <v>2822</v>
+        <v>2820</v>
       </c>
       <c r="BM261" s="1" t="s">
         <v>114</v>
@@ -54917,7 +54849,7 @@
         <v>102</v>
       </c>
       <c r="BT261" s="1" t="s">
-        <v>2823</v>
+        <v>2821</v>
       </c>
       <c r="BU261" s="1" t="s">
         <v>118</v>
@@ -54941,10 +54873,10 @@
         <v>1146</v>
       </c>
       <c r="CD261" s="1" t="s">
-        <v>2824</v>
+        <v>2822</v>
       </c>
       <c r="CE261" s="1" t="s">
-        <v>2825</v>
+        <v>2823</v>
       </c>
     </row>
     <row r="262" spans="1:83" x14ac:dyDescent="0.25">
@@ -54979,19 +54911,19 @@
         <v>93</v>
       </c>
       <c r="K262" s="1" t="s">
+        <v>2824</v>
+      </c>
+      <c r="L262" s="1" t="s">
+        <v>2825</v>
+      </c>
+      <c r="N262" s="1" t="s">
         <v>2826</v>
       </c>
-      <c r="L262" s="1" t="s">
+      <c r="O262" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P262" s="1" t="s">
         <v>2827</v>
-      </c>
-      <c r="N262" s="1" t="s">
-        <v>2828</v>
-      </c>
-      <c r="O262" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="P262" s="1" t="s">
-        <v>2829</v>
       </c>
       <c r="Q262" s="3">
         <v>22645</v>
@@ -55075,10 +55007,10 @@
         <v>111</v>
       </c>
       <c r="BH262" s="1" t="s">
-        <v>2830</v>
+        <v>2828</v>
       </c>
       <c r="BI262" s="1" t="s">
-        <v>2831</v>
+        <v>2829</v>
       </c>
       <c r="BM262" s="1" t="s">
         <v>114</v>
@@ -55087,13 +55019,13 @@
         <v>99</v>
       </c>
       <c r="BR262" s="1" t="s">
-        <v>2832</v>
+        <v>2830</v>
       </c>
       <c r="BS262" s="3">
         <v>35209</v>
       </c>
       <c r="BT262" s="1" t="s">
-        <v>2833</v>
+        <v>2831</v>
       </c>
       <c r="BU262" s="1" t="s">
         <v>118</v>
@@ -55114,10 +55046,10 @@
         <v>1626</v>
       </c>
       <c r="CD262" s="1" t="s">
-        <v>2834</v>
+        <v>2832</v>
       </c>
       <c r="CE262" s="1" t="s">
-        <v>2720</v>
+        <v>2719</v>
       </c>
     </row>
     <row r="263" spans="1:83" x14ac:dyDescent="0.25">
@@ -55152,16 +55084,16 @@
         <v>93</v>
       </c>
       <c r="K263" s="1" t="s">
+        <v>2833</v>
+      </c>
+      <c r="L263" s="1" t="s">
+        <v>2834</v>
+      </c>
+      <c r="M263" s="1" t="s">
+        <v>2773</v>
+      </c>
+      <c r="N263" s="1" t="s">
         <v>2835</v>
-      </c>
-      <c r="L263" s="1" t="s">
-        <v>2836</v>
-      </c>
-      <c r="M263" s="1" t="s">
-        <v>2774</v>
-      </c>
-      <c r="N263" s="1" t="s">
-        <v>2837</v>
       </c>
       <c r="Q263" s="3">
         <v>17470</v>
@@ -55191,7 +55123,7 @@
         <v>43100</v>
       </c>
       <c r="AD263" s="1" t="s">
-        <v>2782</v>
+        <v>2781</v>
       </c>
       <c r="AF263" s="1" t="s">
         <v>103</v>
@@ -55242,7 +55174,7 @@
         <v>107</v>
       </c>
       <c r="BH263" s="1" t="s">
-        <v>2838</v>
+        <v>2836</v>
       </c>
       <c r="BM263" s="1" t="s">
         <v>114</v>
@@ -55251,7 +55183,7 @@
         <v>102</v>
       </c>
       <c r="BT263" s="1" t="s">
-        <v>2839</v>
+        <v>2837</v>
       </c>
       <c r="BU263" s="1" t="s">
         <v>118</v>
@@ -55266,7 +55198,7 @@
         <v>97</v>
       </c>
       <c r="BZ263" s="1" t="s">
-        <v>2815</v>
+        <v>2814</v>
       </c>
       <c r="CA263" s="1" t="s">
         <v>120</v>
@@ -55275,13 +55207,13 @@
         <v>107</v>
       </c>
       <c r="CC263" s="1" t="s">
+        <v>2838</v>
+      </c>
+      <c r="CD263" s="1" t="s">
+        <v>2839</v>
+      </c>
+      <c r="CE263" s="1" t="s">
         <v>2840</v>
-      </c>
-      <c r="CD263" s="1" t="s">
-        <v>2841</v>
-      </c>
-      <c r="CE263" s="1" t="s">
-        <v>2842</v>
       </c>
     </row>
     <row r="264" spans="1:83" x14ac:dyDescent="0.25">
@@ -55316,7 +55248,7 @@
         <v>93</v>
       </c>
       <c r="K264" s="1" t="s">
-        <v>2843</v>
+        <v>2841</v>
       </c>
       <c r="L264" s="1" t="s">
         <v>2307</v>
@@ -55435,16 +55367,16 @@
         <v>93</v>
       </c>
       <c r="K265" s="1" t="s">
+        <v>2842</v>
+      </c>
+      <c r="L265" s="1" t="s">
+        <v>2843</v>
+      </c>
+      <c r="M265" s="1" t="s">
+        <v>2773</v>
+      </c>
+      <c r="N265" s="1" t="s">
         <v>2844</v>
-      </c>
-      <c r="L265" s="1" t="s">
-        <v>2845</v>
-      </c>
-      <c r="M265" s="1" t="s">
-        <v>2774</v>
-      </c>
-      <c r="N265" s="1" t="s">
-        <v>2846</v>
       </c>
       <c r="Q265" s="3">
         <v>23356</v>
@@ -55471,7 +55403,7 @@
         <v>43105</v>
       </c>
       <c r="AD265" s="1" t="s">
-        <v>2847</v>
+        <v>2845</v>
       </c>
       <c r="AF265" s="1" t="s">
         <v>103</v>
@@ -55519,7 +55451,7 @@
         <v>107</v>
       </c>
       <c r="BH265" s="1" t="s">
-        <v>2848</v>
+        <v>2846</v>
       </c>
       <c r="BM265" s="1" t="s">
         <v>114</v>
@@ -55531,13 +55463,13 @@
         <v>99</v>
       </c>
       <c r="BR265" s="1" t="s">
-        <v>2849</v>
+        <v>2847</v>
       </c>
       <c r="BS265" s="3">
         <v>34412</v>
       </c>
       <c r="BT265" s="1" t="s">
-        <v>2850</v>
+        <v>2848</v>
       </c>
       <c r="BU265" s="1" t="s">
         <v>118</v>
@@ -55555,16 +55487,17 @@
         <v>107</v>
       </c>
       <c r="CC265" s="1" t="s">
-        <v>2851</v>
+        <v>2849</v>
       </c>
       <c r="CD265" s="1" t="s">
         <v>2317</v>
       </c>
       <c r="CE265" s="1" t="s">
-        <v>2852</v>
+        <v>2850</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:CF265" xr:uid="{FAE6FD8F-8D51-4A42-A66D-C0F9C9FAB4E9}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>